--- a/xls/google_scholar_atd.xlsx
+++ b/xls/google_scholar_atd.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="469">
   <si>
     <t>Title</t>
   </si>
@@ -45,7 +54,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -62,7 +71,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Helvetica"/>
@@ -82,7 +91,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -104,7 +113,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -121,7 +130,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -140,7 +149,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="17"/>
         <rFont val="Arial"/>
@@ -166,7 +175,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -183,7 +192,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -197,7 +206,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -214,7 +223,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -228,7 +237,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -251,7 +260,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -265,115 +274,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Context
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>A known problem in large software companies is to balance the prioritization of short-term with long-term feature delivery speed. Specifically, Architecture Technical Debt is regarded as sub-optimal </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>architectural solutions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve"> taken to deliver fast that might hinder future feature development, which, in turn, would hinder agility.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Objective
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">This paper aims at improving software management by shedding light on the current factors responsible for the accumulation of Architectural Technical Debt and to understand how it evolves over time.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">We conducted an exploratory multiple-case embedded case study in 7 sites at 5 large companies. We evaluated the results with additional cross-company interviews and an in-depth, company-specific case study in which we initially evaluate factors and models.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Results
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">We compiled a taxonomy of the factors and their influence in the accumulation of Architectural Technical Debt, and we provide two qualitative models of how the debt is accumulated and refactored over time in the studied companies. We also list a set of exploratory propositions on possible refactoring strategies that can be useful as insights for practitioners and as hypotheses for further research.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Conclusion
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>Several factors cause constant and unavoidable accumulation of Architecture Technical Debt, which leads to development crises. Refactorings are often overlooked in prioritization and they are often triggered by development crises, in a reactive fashion. Some of the factors are manageable, while others are external to the companies. ATD needs to be made visible, in order to postpone the crises according to the strategic goals of the companies. There is a need for practices and automated tools to proactively manage ATD.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="17"/>
         <rFont val="Arial"/>
@@ -396,7 +297,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -413,7 +314,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -427,7 +328,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -450,7 +351,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -472,7 +373,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -498,7 +399,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -524,7 +425,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -541,7 +442,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -558,7 +459,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -575,7 +476,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -592,7 +493,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -609,7 +510,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -656,7 +557,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -668,155 +569,12 @@
     <t>martini2018semi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Context
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>Research and industry's attention has been focusing on developing systems that enable fast time to market in the short term, but would assure a sustainable delivery of business value and maintenance operations in the long run. A related phenomenon has been identified in Architectural Technical Debt: if the </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>system architecture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t> is sub-optimal for long-term business goals, it might need to be refactored. A key property of the system assuring long-term goals is its </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>modularity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">, or else the degree to which components are decoupled: such property allows the product to be evolved without costly changes pervading the whole system. However, understanding the business benefits of refactoring to achieve modularity is not trivial, especially for large refactorings involving substantial architectural changes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Objective
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">The aim of this study was to develop a technique to identify Architectural Technical Debt in the form of a non-modularized component and to quantify the convenience of its repayment.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">We have conducted a single, embedded case study in a large company, comparing a component before and after it was refactored to achieve modularity. We have developed a holistic framework for the semi-automated identification and estimation of Architectural Technical Debt in the form of non-modularized components. We then evaluate the technique reporting a comparative study of the difference in maintenance and development costs in two coexisting systems, one including the refactored component and one including the non-refactored one.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Results
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>The main contributions are a measurement system for the identification of the Architectural Technical Debt according to the </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>stakeholders’ goals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">, a mathematical relationship for calculating and quantifying its interest in terms of extra-effort spent in additional development and maintenance, and an overall decision framework to assess the benefit of refactoring. We also report context-specific results that show the estimated benefits of refactoring the specific case of Architectural Technical Debt.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Conclusion
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">We found that it is possible to identify this kind of Architectural Technical Debt and to quantify its repayment convenience. Thanks to the developed framework, it was possible to estimate that the Architectural Technical Debt present in the component was causing substantial continuous extra-effort, and that the modularization would be repaid in several months of development and maintenance.
-</t>
-    </r>
-  </si>
-  <si>
     <t>ATDx: Building an Architectural Technical Debt Index</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -848,7 +606,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -870,7 +628,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -887,7 +645,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -904,7 +662,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -932,7 +690,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -955,7 +713,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -972,7 +730,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -986,7 +744,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -998,121 +756,13 @@
     <t>de2021identifying</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Background:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>Using a </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>microservices architecture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve"> is a popular strategy for software organizations to deliver value to their customers fast and continuously. However, scientific knowledge on how to manage architectural debt in microservices is scarce.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Objectives:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">In the context of microservices applications, this paper aims to identify architectural technical debts (ATDs), their costs, and their most common solutions.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Method:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">We conducted an exploratory multiple case study by conducting 25 interviews with practitioners working with microservices in seven large companies.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Results:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">We found 16 ATD issues, their negative impact (interest), and common solutions to repay each debt together with the related costs (principal). Two examples of critical ATD issues found were the use of shared databases that, if not properly planned, leads to potential breaks on services every time the database schema changes and bad API designs, which leads to coupling among teams. We identified ATDs occurring in different domains and stages of development and created a map of the relationships among those debts.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">Conclusion:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>The findings may guide organizations in developing microservices systems that better manage and avoid architectural debts</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Impact of architectural technical debt on daily software development work—a survey of software practitioners
 </t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1135,7 +785,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1153,7 +803,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -1167,7 +817,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1184,7 +834,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -1193,7 +843,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -1207,7 +857,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1224,7 +874,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -1238,7 +888,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1264,7 +914,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1287,7 +937,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1310,7 +960,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1333,7 +983,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1350,7 +1000,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -1364,7 +1014,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1392,7 +1042,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1410,8 +1060,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="20"/>
         <rFont val="Helvetica"/>
@@ -1425,7 +1075,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1448,7 +1098,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1465,7 +1115,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -1479,7 +1129,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1496,7 +1146,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -1513,7 +1163,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1530,7 +1180,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -1544,7 +1194,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1570,7 +1220,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1592,7 +1242,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -1609,7 +1259,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -1628,7 +1278,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="17"/>
         <rFont val="Arial"/>
@@ -1651,7 +1301,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1662,7 +1312,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -1676,7 +1326,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1690,7 +1340,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -1712,7 +1362,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1729,7 +1379,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -1743,7 +1393,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1790,7 +1440,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1813,7 +1463,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1833,7 +1483,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1854,7 +1504,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1875,7 +1525,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1923,7 +1573,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1946,7 +1596,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1971,7 +1621,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="24"/>
         <rFont val="Arial"/>
@@ -1985,7 +1635,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2010,7 +1660,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2027,7 +1677,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="15"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -2036,7 +1686,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="15"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -2050,7 +1700,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2073,7 +1723,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2096,7 +1746,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2117,7 +1767,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2134,7 +1784,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -2143,7 +1793,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -2157,7 +1807,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2180,7 +1830,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2197,7 +1847,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="15"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -2211,7 +1861,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2233,7 +1883,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2253,7 +1903,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2279,7 +1929,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2302,7 +1952,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2319,7 +1969,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -2333,7 +1983,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2364,7 +2014,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -2464,7 +2114,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2487,7 +2137,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2514,7 +2164,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -2528,7 +2178,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2542,7 +2192,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -2551,7 +2201,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -2565,7 +2215,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2579,7 +2229,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -2593,7 +2243,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2613,7 +2263,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2630,7 +2280,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2651,7 +2301,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2671,7 +2321,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2685,7 +2335,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="15"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -2694,7 +2344,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="15"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -2708,7 +2358,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2722,7 +2372,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="15"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -2736,7 +2386,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2758,7 +2408,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -2772,7 +2422,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2786,7 +2436,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="15"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -2800,7 +2450,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2817,7 +2467,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -2831,7 +2481,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2933,7 +2583,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="17"/>
         <rFont val="Arial"/>
@@ -2957,7 +2607,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3069,7 +2719,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="17"/>
         <rFont val="Arial"/>
@@ -3083,7 +2733,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3103,7 +2753,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3123,7 +2773,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3137,7 +2787,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="15"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -3151,7 +2801,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3165,8 +2815,8 @@
   <si>
     <r>
       <rPr>
-        <i val="1"/>
-        <u val="single"/>
+        <i/>
+        <u/>
         <sz val="16"/>
         <color indexed="25"/>
         <rFont val="Helvetica"/>
@@ -3180,7 +2830,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3200,7 +2850,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3214,7 +2864,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="15"/>
         <rFont val="Helvetica"/>
@@ -3229,7 +2879,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3243,7 +2893,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -3258,7 +2908,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3272,7 +2922,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="15"/>
         <rFont val="Helvetica"/>
@@ -3286,7 +2936,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3304,7 +2954,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3329,7 +2979,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3349,7 +2999,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3452,8 +3102,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="24"/>
         <color indexed="26"/>
         <rFont val="Times Roman"/>
@@ -3462,7 +3112,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="24"/>
         <color indexed="12"/>
         <rFont val="Times Roman"/>
@@ -3478,7 +3128,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3588,7 +3238,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3694,7 +3344,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3714,7 +3364,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3752,7 +3402,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3773,7 +3423,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3787,7 +3437,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="17"/>
         <rFont val="Arial"/>
@@ -3810,7 +3460,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3830,7 +3480,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3850,7 +3500,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3864,7 +3514,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="15"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
@@ -3873,7 +3523,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="15"/>
         <color indexed="18"/>
         <rFont val="Helvetica"/>
@@ -3888,7 +3538,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3908,7 +3558,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3929,7 +3579,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3940,7 +3590,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -3958,7 +3608,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -3976,7 +3626,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -3994,7 +3644,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -4012,7 +3662,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="16"/>
         <rFont val="Georgia"/>
@@ -4036,7 +3686,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4057,7 +3707,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4078,7 +3728,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4092,7 +3742,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="14"/>
         <color indexed="17"/>
         <rFont val="Arial"/>
@@ -4116,7 +3766,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4133,7 +3783,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4148,52 +3798,343 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="15"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>2020 46th Euromicro Conference on Software Engineering and Advanced Applications (SEAA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>A known problem in large software companies is to balance the prioritizaion of short-term with long-term feature delivery speed. Specifically, Architecture Technical Debt is regarded as sub-optimal </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>architectural solutions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t> taken to deliver fast that might hinder future feature development, which, in turn, would hinder agility.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>This paper aims at improving software management by shedding light on the current factors responsible for the accumulation of Architectural Technical Debt and to understand how it evolves over time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>We conducted an exploratory multiple-case embedded case study in 7 sites at 5 large companies. We evaluated the results with additional cross-company interviews and an in-depth, company-specific case study in which we initially evaluate factors and models.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>We compiled a taxonomy of the factors and their influence in the accumulation of Architectural Technical Debt, and we provide two qualitative models of how the debt is accumulated and refactored over time in the studied companies. We also list a set of exploratory propositions on possible refactoring strategies that can be useful as insights for practitioners and as hypotheses for further research.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>Several factors cause constant and unavoidable accumulation of Architecture Technical Debt, which leads to development crises. Refactorings are often overlooked in prioritization and they are often triggered by development crises, in a reactive fashion. Some of the factors are manageable, while others are external to the companies. ATD needs to be made visible, in order to postpone the crises according to the strategic goals of the companies. There is a need for practices and automated tools to proactively manage ATD.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>Research and industry's attention has been focusing on developing systems that enable fast time to market in the short term, but would assure a sustainable delivery of business value and maintenance operations in the long run. A related phenomenon has been identified in Architectural Technical Debt: if the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>system architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t> is sub-optimal for long-term business goals, it might need to be refactored. A key property of the system assuring long-term goals is its </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>modularity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>, or else the degree to which components are decoupled: such property allows the product to be evolved without costly changes pervading the whole system. However, understanding the business benefits of refactoring to achieve modularity is not trivial, especially for large refactorings involving substantial architectural changes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">The aim of this study was to develop a technique to identify Architectural Technical Debt in the form of a non-modularized component and to quantify the convenience of its repayment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">Method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>We have conducted a single, embedded case study in a large company, comparing a component before and after it was refactored to achieve modularity. We have developed a holistic framework for the semi-automated identification and estimation of Architectural Technical Debt in the form of non-modularized components. We then evaluate the technique reporting a comparative study of the difference in maintenance and development costs in two coexisting systems, one including the refactored component and one including the non-refactored one.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>The main contributions are a measurement system for the identification of the Architectural Technical Debt according to the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>stakeholders’ goals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>, a mathematical relationship for calculating and quantifying its interest in terms of extra-effort spent in additional development and maintenance, and an overall decision framework to assess the benefit of refactoring. We also report context-specific results that show the estimated benefits of refactoring the specific case of Architectural Technical Debt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">We found that it is possible to identify this kind of Architectural Technical Debt and to quantify its repayment convenience. Thanks to the developed framework, it was possible to estimate that the Architectural Technical Debt present in the component was causing substantial continuous extra-effort, and that the modularization would be repaid in several months of development and maintenance.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>Using a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>microservices architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t> is a popular strategy for software organizations to deliver value to their customers fast and continuously. However, scientific knowledge on how to manage architectural debt in microservices is scarce.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>In the context of microservices applications, this paper aims to identify architectural technical debts (ATDs), their costs, and their most common solutions.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>We conducted an exploratory multiple case study by conducting 25 interviews with practitioners working with microservices in seven large companies.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t xml:space="preserve">We found 16 ATD issues, their negative impact (interest), and common solutions to repay each debt together with the related costs (principal). Two examples of critical ATD issues found were the use of shared databases that, if not properly planned, leads to potential breaks on services every time the database schema changes and bad API designs, which leads to coupling among teams. We identified ATDs occurring in different domains and stages of development and created a map of the relationships among those debts.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Georgia"/>
+      </rPr>
+      <t>The findings may guide organizations in developing microservices systems that better manage and avoid architectural debts</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="52">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -4209,7 +4150,7 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
@@ -4225,19 +4166,19 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Georgia"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Georgia"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="17"/>
       <name val="Arial"/>
@@ -4253,13 +4194,13 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Helvetica"/>
@@ -4270,13 +4211,13 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Helvetica"/>
@@ -4287,8 +4228,8 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color indexed="20"/>
       <name val="Helvetica"/>
@@ -4324,25 +4265,25 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="14"/>
       <color indexed="24"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="15"/>
       <color indexed="14"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="15"/>
       <color indexed="18"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="15"/>
       <color indexed="14"/>
       <name val="Helvetica"/>
@@ -4358,8 +4299,8 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Helvetica"/>
@@ -4385,13 +4326,13 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Arial"/>
@@ -4402,14 +4343,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i val="1"/>
-      <u val="single"/>
+      <i/>
+      <u/>
       <sz val="16"/>
       <color indexed="25"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="14"/>
       <color indexed="15"/>
       <name val="Helvetica"/>
@@ -4420,8 +4361,8 @@
       <name val="Times Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="18"/>
       <color indexed="14"/>
       <name val="Helvetica"/>
@@ -4432,20 +4373,20 @@
       <name val="Lucida Grande"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="24"/>
       <color indexed="26"/>
       <name val="Times Roman"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="24"/>
       <color indexed="12"/>
       <name val="Times Roman"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Georgia"/>
@@ -4568,120 +4509,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="31" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="35" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="36" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="43" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="44" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="49" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4689,44 +4630,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffd4d4d4"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff004aa7"/>
-      <rgbColor rgb="ff2e2e2e"/>
-      <rgbColor rgb="ff505050"/>
-      <rgbColor rgb="ff006699"/>
-      <rgbColor rgb="ff1c1d1e"/>
-      <rgbColor rgb="ff444444"/>
-      <rgbColor rgb="ff666666"/>
-      <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="ff222222"/>
-      <rgbColor rgb="ff515050"/>
-      <rgbColor rgb="ff004b83"/>
-      <rgbColor rgb="ff0000ee"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFD4D4D4"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF004AA7"/>
+      <rgbColor rgb="FF2E2E2E"/>
+      <rgbColor rgb="FF505050"/>
+      <rgbColor rgb="FF006699"/>
+      <rgbColor rgb="FF1C1D1E"/>
+      <rgbColor rgb="FF444444"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF323232"/>
+      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="FF515050"/>
+      <rgbColor rgb="FF004B83"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -4928,7 +4905,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4947,7 +4924,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4977,7 +4954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5003,7 +4980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5029,7 +5006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5055,7 +5032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5081,7 +5058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5107,7 +5084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5133,7 +5110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5159,7 +5136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5185,7 +5162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5198,9 +5175,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -5217,7 +5200,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5236,7 +5219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5262,7 +5245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5288,7 +5271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5314,7 +5297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5340,7 +5323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5366,7 +5349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5392,7 +5375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5418,7 +5401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5444,7 +5427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5470,7 +5453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5483,9 +5466,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -5499,7 +5488,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5518,7 +5507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5548,7 +5537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5574,7 +5563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5600,7 +5589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5626,7 +5615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5652,7 +5641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5678,7 +5667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5704,7 +5693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5730,7 +5719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5756,7 +5745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5769,2873 +5758,2883 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="46.8828" style="1" customWidth="1"/>
-    <col min="2" max="2" hidden="1" width="16.3333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7266" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="61" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.17188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="319.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:9" ht="319.5" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7">
         <v>2019</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7">
         <v>9</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="355.35" customHeight="1">
-      <c r="A3" t="s" s="9">
+    <row r="3" spans="1:9" ht="355.25" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="11">
         <v>2018</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="11">
         <v>58</v>
       </c>
-      <c r="H3" t="s" s="9">
+      <c r="H3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="12">
+      <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="309.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" spans="1:9" ht="309.25" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="13">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="11">
         <v>2015</v>
       </c>
-      <c r="F4" t="s" s="9">
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="11">
         <v>62</v>
       </c>
-      <c r="H4" t="s" s="9">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s" s="12">
+      <c r="I4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="309.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" spans="1:9" ht="309.25" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="11">
         <v>2018</v>
       </c>
-      <c r="F5" t="s" s="9">
+      <c r="F5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="11">
         <v>21</v>
       </c>
-      <c r="H5" t="s" s="9">
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="224.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" spans="1:9" ht="224" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="11">
         <v>2017</v>
       </c>
-      <c r="F6" t="s" s="9">
+      <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="11">
         <v>24</v>
       </c>
-      <c r="H6" t="s" s="9">
+      <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="12">
+      <c r="I6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="686.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s" s="9">
-        <v>40</v>
+      <c r="D7" s="9" t="s">
+        <v>466</v>
       </c>
       <c r="E7" s="11">
         <v>2015</v>
       </c>
-      <c r="F7" t="s" s="9">
-        <v>41</v>
+      <c r="F7" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="G7" s="11">
         <v>85</v>
       </c>
-      <c r="H7" t="s" s="9">
+      <c r="H7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s" s="12">
+      <c r="I7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="212.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" spans="1:9" ht="212" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="D8" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>45</v>
       </c>
       <c r="E8" s="11">
         <v>2014</v>
       </c>
-      <c r="F8" t="s" s="9">
-        <v>46</v>
+      <c r="F8" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="G8" s="11">
         <v>64</v>
       </c>
-      <c r="H8" t="s" s="9">
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s" s="12">
+      <c r="I8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="241.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" spans="1:9" ht="241.25" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="D9" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" t="s" s="13">
-        <v>50</v>
       </c>
       <c r="E9" s="11">
         <v>2015</v>
       </c>
-      <c r="F9" t="s" s="9">
-        <v>51</v>
+      <c r="F9" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="G9" s="11">
         <v>48</v>
       </c>
-      <c r="H9" t="s" s="9">
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s" s="12">
+      <c r="I9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="650.35" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="C10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="D10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>55</v>
       </c>
       <c r="E10" s="11">
         <v>2021</v>
       </c>
-      <c r="F10" t="s" s="9">
-        <v>56</v>
+      <c r="F10" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
       </c>
-      <c r="H10" t="s" s="9">
+      <c r="H10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s" s="12">
+      <c r="I10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="377.35" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" spans="1:9" ht="377.25" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" t="s" s="10">
+      <c r="D11" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" t="s" s="13">
-        <v>59</v>
       </c>
       <c r="E11" s="11">
         <v>2016</v>
       </c>
-      <c r="F11" t="s" s="9">
-        <v>60</v>
+      <c r="F11" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="G11" s="11">
         <v>38</v>
       </c>
-      <c r="H11" t="s" s="9">
+      <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="954.35" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="C12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>64</v>
+      <c r="D12" s="9" t="s">
+        <v>467</v>
       </c>
       <c r="E12" s="11">
         <v>2018</v>
       </c>
-      <c r="F12" t="s" s="9">
-        <v>41</v>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="G12" s="11">
         <v>20</v>
       </c>
-      <c r="H12" t="s" s="9">
+      <c r="H12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s" s="12">
+      <c r="I12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="236.05" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" spans="1:9" ht="236" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s" s="9">
+      <c r="D13" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>68</v>
       </c>
       <c r="E13" s="11">
         <v>2020</v>
       </c>
-      <c r="F13" t="s" s="9">
-        <v>69</v>
+      <c r="F13" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="G13" s="11">
         <v>4</v>
       </c>
-      <c r="H13" t="s" s="9">
+      <c r="H13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s" s="12">
+      <c r="I13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="460.35" customHeight="1">
-      <c r="A14" t="s" s="9">
+    <row r="14" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="D14" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>73</v>
       </c>
       <c r="E14" s="11">
         <v>2016</v>
       </c>
-      <c r="F14" t="s" s="9">
-        <v>74</v>
+      <c r="F14" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="G14" s="11">
         <v>14</v>
       </c>
-      <c r="H14" t="s" s="9">
+      <c r="H14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="122.25" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="122.35" customHeight="1">
-      <c r="A15" t="s" s="9">
+      <c r="C15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="D15" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s" s="13">
-        <v>79</v>
       </c>
       <c r="E15" s="11">
         <v>2018</v>
       </c>
-      <c r="F15" t="s" s="9">
-        <v>80</v>
+      <c r="F15" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="G15" s="11">
         <v>8</v>
       </c>
-      <c r="H15" t="s" s="9">
+      <c r="H15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I15" t="s" s="12">
+      <c r="I15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="173.35" customHeight="1">
-      <c r="A16" t="s" s="9">
+    <row r="16" spans="1:9" ht="173.25" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s" s="9">
+      <c r="D16" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="C16" t="s" s="13">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s" s="13">
-        <v>84</v>
       </c>
       <c r="E16" s="11">
         <v>2018</v>
       </c>
-      <c r="F16" t="s" s="9">
-        <v>85</v>
+      <c r="F16" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="G16" s="11">
         <v>5</v>
       </c>
-      <c r="H16" t="s" s="9">
+      <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="s" s="12">
+      <c r="I16" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="560.35" customHeight="1">
-      <c r="A17" t="s" s="9">
+    <row r="17" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B17" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>89</v>
+      <c r="D17" s="9" t="s">
+        <v>468</v>
       </c>
       <c r="E17" s="11">
         <v>2021</v>
       </c>
-      <c r="F17" t="s" s="9">
+      <c r="F17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="11">
         <v>5</v>
       </c>
-      <c r="H17" t="s" s="9">
+      <c r="H17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I17" t="s" s="12">
+      <c r="I17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="343.35" customHeight="1">
-      <c r="A18" t="s" s="9">
+    <row r="18" spans="1:9" ht="343.25" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s" s="13">
-        <v>93</v>
       </c>
       <c r="E18" s="11">
         <v>2017</v>
       </c>
-      <c r="F18" t="s" s="9">
-        <v>94</v>
+      <c r="F18" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="G18" s="11">
         <v>8</v>
       </c>
-      <c r="H18" t="s" s="9">
+      <c r="H18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I18" t="s" s="12">
+      <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="190.35" customHeight="1">
-      <c r="A19" t="s" s="9">
+    <row r="19" spans="1:9" ht="190.25" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s" s="13">
-        <v>98</v>
       </c>
       <c r="E19" s="11">
         <v>2021</v>
       </c>
-      <c r="F19" t="s" s="9">
-        <v>99</v>
+      <c r="F19" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
-      <c r="H19" t="s" s="9">
+      <c r="H19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I19" t="s" s="12">
+      <c r="I19" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="258.35" customHeight="1">
-      <c r="A20" t="s" s="9">
+    <row r="20" spans="1:9" ht="258.25" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s" s="13">
-        <v>103</v>
       </c>
       <c r="E20" s="11">
         <v>2019</v>
       </c>
-      <c r="F20" t="s" s="9">
-        <v>104</v>
+      <c r="F20" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="G20" s="11">
         <v>4</v>
       </c>
-      <c r="H20" t="s" s="9">
+      <c r="H20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="258.35" customHeight="1">
-      <c r="A21" t="s" s="9">
+    <row r="21" spans="1:9" ht="258.25" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s" s="13">
-        <v>108</v>
       </c>
       <c r="E21" s="11">
         <v>2015</v>
       </c>
-      <c r="F21" t="s" s="9">
-        <v>109</v>
+      <c r="F21" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="G21" s="11">
         <v>24</v>
       </c>
-      <c r="H21" t="s" s="9">
+      <c r="H21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I21" t="s" s="12">
+      <c r="I21" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="15">
+    <row r="22" spans="1:9" ht="32" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>113</v>
       </c>
       <c r="E22" s="11">
         <v>2012</v>
       </c>
-      <c r="F22" t="s" s="9">
-        <v>114</v>
+      <c r="F22" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="G22" s="11">
         <v>4</v>
       </c>
-      <c r="H22" t="s" s="9">
+      <c r="H22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="156.25" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I22" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="156.35" customHeight="1">
-      <c r="A23" t="s" s="15">
+      <c r="D23" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s" s="13">
-        <v>119</v>
       </c>
       <c r="E23" s="11">
         <v>2014</v>
       </c>
-      <c r="F23" t="s" s="9">
-        <v>120</v>
+      <c r="F23" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="G23" s="11">
         <v>92</v>
       </c>
-      <c r="H23" t="s" s="9">
+      <c r="H23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I23" t="s" s="12">
+      <c r="I23" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="254.35" customHeight="1">
-      <c r="A24" t="s" s="9">
+    <row r="24" spans="1:9" ht="254.25" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>122</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>123</v>
-      </c>
-      <c r="D24" t="s" s="16">
-        <v>124</v>
       </c>
       <c r="E24" s="11">
         <v>2019</v>
       </c>
-      <c r="F24" t="s" s="9">
-        <v>125</v>
+      <c r="F24" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="G24" s="11">
         <v>3</v>
       </c>
-      <c r="H24" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="12">
+      <c r="H24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="239.35" customHeight="1">
-      <c r="A25" t="s" s="9">
+    <row r="25" spans="1:9" ht="239.25" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s" s="17">
-        <v>129</v>
       </c>
       <c r="E25" s="11">
         <v>2020</v>
       </c>
-      <c r="F25" t="s" s="9">
-        <v>130</v>
+      <c r="F25" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="G25" s="11">
         <v>1</v>
       </c>
-      <c r="H25" t="s" s="9">
+      <c r="H25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I25" t="s" s="12">
+      <c r="I25" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="190.35" customHeight="1">
-      <c r="A26" t="s" s="9">
+    <row r="26" spans="1:9" ht="190.25" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s" s="10">
-        <v>133</v>
-      </c>
-      <c r="D26" t="s" s="13">
-        <v>134</v>
       </c>
       <c r="E26" s="11">
         <v>2015</v>
       </c>
-      <c r="F26" t="s" s="9">
-        <v>135</v>
+      <c r="F26" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="G26" s="11">
         <v>30</v>
       </c>
-      <c r="H26" t="s" s="9">
+      <c r="H26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="344.05" customHeight="1">
-      <c r="A27" t="s" s="9">
+    <row r="27" spans="1:9" ht="344" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>137</v>
-      </c>
-      <c r="C27" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="D27" t="s" s="9">
-        <v>139</v>
       </c>
       <c r="E27" s="11">
         <v>2019</v>
       </c>
-      <c r="F27" t="s" s="9">
-        <v>140</v>
+      <c r="F27" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="G27" s="11">
         <v>4</v>
       </c>
-      <c r="H27" t="s" s="9">
+      <c r="H27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="284" customHeight="1">
+      <c r="A28" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I27" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" ht="284.05" customHeight="1">
-      <c r="A28" t="s" s="15">
+      <c r="D28" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B28" t="s" s="9">
-        <v>142</v>
-      </c>
-      <c r="C28" t="s" s="10">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s" s="9">
-        <v>144</v>
       </c>
       <c r="E28" s="11">
         <v>2021</v>
       </c>
-      <c r="F28" t="s" s="9">
-        <v>145</v>
+      <c r="F28" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="G28" s="11">
         <v>1</v>
       </c>
-      <c r="H28" t="s" s="9">
+      <c r="H28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I28" t="s" s="12">
+      <c r="I28" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="218.35" customHeight="1">
-      <c r="A29" t="s" s="9">
+    <row r="29" spans="1:9" ht="218.25" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="B29" t="s" s="9">
-        <v>147</v>
-      </c>
-      <c r="C29" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="D29" t="s" s="13">
-        <v>149</v>
       </c>
       <c r="E29" s="11">
         <v>2020</v>
       </c>
-      <c r="F29" t="s" s="9">
+      <c r="F29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="207.25" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" ht="207.35" customHeight="1">
-      <c r="A30" t="s" s="9">
+      <c r="D30" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B30" t="s" s="9">
-        <v>152</v>
-      </c>
-      <c r="C30" t="s" s="10">
-        <v>153</v>
-      </c>
-      <c r="D30" t="s" s="13">
-        <v>154</v>
       </c>
       <c r="E30" s="11">
         <v>2016</v>
       </c>
-      <c r="F30" t="s" s="9">
-        <v>155</v>
+      <c r="F30" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="G30" s="11">
         <v>2</v>
       </c>
-      <c r="H30" t="s" s="9">
+      <c r="H30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I30" t="s" s="12">
+      <c r="I30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="360.35" customHeight="1">
-      <c r="A31" t="s" s="9">
+    <row r="31" spans="1:9" ht="360.25" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>157</v>
-      </c>
-      <c r="C31" t="s" s="10">
-        <v>158</v>
-      </c>
-      <c r="D31" t="s" s="13">
-        <v>159</v>
       </c>
       <c r="E31" s="11">
         <v>2015</v>
       </c>
-      <c r="F31" t="s" s="9">
-        <v>160</v>
+      <c r="F31" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="G31" s="11">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="9">
+      <c r="H31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="275.25" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I31" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" ht="275.35" customHeight="1">
-      <c r="A32" t="s" s="9">
+      <c r="D32" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="B32" t="s" s="9">
-        <v>163</v>
-      </c>
-      <c r="C32" t="s" s="10">
-        <v>164</v>
-      </c>
-      <c r="D32" t="s" s="13">
-        <v>165</v>
       </c>
       <c r="E32" s="11">
         <v>2018</v>
       </c>
-      <c r="F32" t="s" s="9">
-        <v>166</v>
+      <c r="F32" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="G32" s="11">
         <v>7</v>
       </c>
-      <c r="H32" t="s" s="9">
+      <c r="H32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I32" t="s" s="12">
+      <c r="I32" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" ht="340.35" customHeight="1">
-      <c r="A33" t="s" s="9">
+    <row r="33" spans="1:9" ht="340.25" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="B33" t="s" s="9">
-        <v>168</v>
-      </c>
-      <c r="C33" t="s" s="10">
-        <v>169</v>
-      </c>
-      <c r="D33" t="s" s="13">
-        <v>170</v>
       </c>
       <c r="E33" s="11">
         <v>2019</v>
       </c>
-      <c r="F33" t="s" s="9">
-        <v>171</v>
+      <c r="F33" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="H33" t="s" s="9">
+      <c r="H33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="208.25" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I33" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" ht="208.35" customHeight="1">
-      <c r="A34" t="s" s="9">
+      <c r="D34" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="B34" t="s" s="9">
-        <v>174</v>
-      </c>
-      <c r="C34" t="s" s="10">
-        <v>175</v>
-      </c>
-      <c r="D34" t="s" s="9">
-        <v>176</v>
       </c>
       <c r="E34" s="11">
         <v>2014</v>
       </c>
-      <c r="F34" t="s" s="9">
-        <v>177</v>
+      <c r="F34" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="G34" s="11">
         <v>53</v>
       </c>
-      <c r="H34" t="s" s="9">
+      <c r="H34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" ht="343.35" customHeight="1">
-      <c r="A35" t="s" s="9">
-        <v>178</v>
-      </c>
-      <c r="B35" t="s" s="9">
-        <v>179</v>
-      </c>
-      <c r="C35" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s" s="13">
-        <v>93</v>
+    <row r="35" spans="1:9" ht="343.25" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="E35" s="11">
         <v>2017</v>
       </c>
-      <c r="F35" t="s" s="9">
-        <v>180</v>
+      <c r="F35" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="G35" s="11">
         <v>8</v>
       </c>
-      <c r="H35" t="s" s="9">
+      <c r="H35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" ht="308.35" customHeight="1">
-      <c r="A36" t="s" s="9">
-        <v>181</v>
-      </c>
-      <c r="B36" t="s" s="9">
-        <v>182</v>
-      </c>
-      <c r="C36" t="s" s="18">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s" s="18">
-        <v>183</v>
+    <row r="36" spans="1:9" ht="308.25" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="E36" s="11">
         <v>2918</v>
       </c>
-      <c r="F36" t="s" s="9">
-        <v>184</v>
+      <c r="F36" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="G36" s="11">
         <v>1</v>
       </c>
-      <c r="H36" t="s" s="9">
+      <c r="H36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" ht="224.35" customHeight="1">
-      <c r="A37" t="s" s="9">
+    <row r="37" spans="1:9" ht="224.25" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="B37" t="s" s="9">
-        <v>186</v>
-      </c>
-      <c r="C37" t="s" s="10">
-        <v>187</v>
-      </c>
-      <c r="D37" t="s" s="13">
-        <v>188</v>
       </c>
       <c r="E37" s="11">
         <v>2017</v>
       </c>
-      <c r="F37" t="s" s="9">
-        <v>189</v>
+      <c r="F37" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="G37" s="11">
         <v>5</v>
       </c>
-      <c r="H37" t="s" s="9">
+      <c r="H37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="524.05" customHeight="1">
-      <c r="A38" t="s" s="9">
+    <row r="38" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="B38" t="s" s="9">
-        <v>191</v>
-      </c>
-      <c r="C38" t="s" s="10">
-        <v>192</v>
-      </c>
-      <c r="D38" t="s" s="9">
-        <v>193</v>
       </c>
       <c r="E38" s="11">
         <v>2018</v>
       </c>
-      <c r="F38" t="s" s="9">
-        <v>194</v>
+      <c r="F38" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="G38" s="11">
         <v>5</v>
       </c>
-      <c r="H38" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="I38" t="s" s="12">
+      <c r="H38" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="9">
+    <row r="39" spans="1:9" ht="20" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B39" t="s" s="9">
+      <c r="E39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C39" t="s" s="10">
-        <v>197</v>
-      </c>
-      <c r="D39" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="E39" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="F39" t="s" s="9">
-        <v>199</v>
       </c>
       <c r="G39" s="11">
         <v>0</v>
       </c>
-      <c r="H39" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="I39" t="s" s="12">
+      <c r="H39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" ht="212.35" customHeight="1">
-      <c r="A40" t="s" s="9">
+    <row r="40" spans="1:9" ht="212.25" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="B40" t="s" s="9">
-        <v>201</v>
-      </c>
-      <c r="C40" t="s" s="10">
-        <v>202</v>
-      </c>
-      <c r="D40" t="s" s="13">
-        <v>203</v>
       </c>
       <c r="E40" s="11">
         <v>2017</v>
       </c>
-      <c r="F40" t="s" s="9">
-        <v>194</v>
+      <c r="F40" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="G40" s="11">
         <v>1</v>
       </c>
-      <c r="H40" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="I40" t="s" s="12">
+      <c r="H40" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" ht="196.05" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>204</v>
-      </c>
-      <c r="B41" t="s" s="9">
-        <v>205</v>
-      </c>
-      <c r="C41" t="s" s="10">
-        <v>206</v>
-      </c>
-      <c r="D41" t="s" s="19">
-        <v>154</v>
+    <row r="41" spans="1:9" ht="196" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="E41" s="11">
         <v>2017</v>
       </c>
-      <c r="F41" t="s" s="9">
-        <v>207</v>
+      <c r="F41" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="G41" s="11">
         <v>0</v>
       </c>
-      <c r="H41" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="I41" t="s" s="12">
+      <c r="H41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" ht="219.35" customHeight="1">
-      <c r="A42" t="s" s="15">
+    <row r="42" spans="1:9" ht="219.25" customHeight="1">
+      <c r="A42" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="B42" t="s" s="9">
-        <v>209</v>
-      </c>
-      <c r="C42" t="s" s="10">
-        <v>210</v>
-      </c>
-      <c r="D42" t="s" s="17">
-        <v>211</v>
       </c>
       <c r="E42" s="11">
         <v>2018</v>
       </c>
-      <c r="F42" t="s" s="9">
+      <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="11">
         <v>25</v>
       </c>
-      <c r="H42" t="s" s="9">
+      <c r="H42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="244.35" customHeight="1">
-      <c r="A43" t="s" s="9">
+    <row r="43" spans="1:9" ht="244.25" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="B43" t="s" s="9">
-        <v>213</v>
-      </c>
-      <c r="C43" t="s" s="10">
-        <v>214</v>
-      </c>
-      <c r="D43" t="s" s="13">
-        <v>215</v>
       </c>
       <c r="E43" s="11">
         <v>2015</v>
       </c>
-      <c r="F43" t="s" s="9">
-        <v>194</v>
+      <c r="F43" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="G43" s="11">
         <v>1</v>
       </c>
-      <c r="H43" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="I43" t="s" s="12">
+      <c r="H43" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" ht="380.05" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>216</v>
+    <row r="44" spans="1:9" ht="380" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="C44" t="s" s="10">
-        <v>217</v>
-      </c>
-      <c r="D44" t="s" s="9">
-        <v>218</v>
+      <c r="C44" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="E44" s="11">
         <v>2018</v>
       </c>
-      <c r="F44" t="s" s="9">
-        <v>219</v>
+      <c r="F44" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
       </c>
-      <c r="H44" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="I44" t="s" s="12">
+      <c r="H44" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" ht="132.35" customHeight="1">
-      <c r="A45" t="s" s="9">
+    <row r="45" spans="1:9" ht="132.25" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="B45" t="s" s="9">
-        <v>221</v>
-      </c>
-      <c r="C45" t="s" s="10">
-        <v>222</v>
-      </c>
-      <c r="D45" t="s" s="20">
-        <v>223</v>
       </c>
       <c r="E45" s="11">
         <v>2016</v>
       </c>
-      <c r="F45" t="s" s="9">
-        <v>224</v>
+      <c r="F45" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="G45" s="11">
         <v>0</v>
       </c>
-      <c r="H45" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="I45" t="s" s="12">
+      <c r="H45" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" ht="419" customHeight="1">
-      <c r="A46" t="s" s="9">
+    <row r="46" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="B46" t="s" s="9">
-        <v>226</v>
-      </c>
-      <c r="C46" t="s" s="10">
-        <v>227</v>
-      </c>
-      <c r="D46" t="s" s="21">
-        <v>228</v>
       </c>
       <c r="E46" s="11">
         <v>2020</v>
       </c>
-      <c r="F46" t="s" s="9">
-        <v>229</v>
+      <c r="F46" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" t="s" s="9">
+      <c r="H46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" ht="416.05" customHeight="1">
-      <c r="A47" t="s" s="9">
+    <row r="47" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="B47" t="s" s="9">
-        <v>231</v>
-      </c>
-      <c r="C47" t="s" s="10">
-        <v>232</v>
-      </c>
-      <c r="D47" t="s" s="22">
-        <v>233</v>
       </c>
       <c r="E47" s="11">
         <v>2020</v>
       </c>
-      <c r="F47" t="s" s="9">
-        <v>234</v>
+      <c r="F47" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="H47" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="I47" t="s" s="12">
+      <c r="H47" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" ht="292.35" customHeight="1">
-      <c r="A48" t="s" s="9">
+    <row r="48" spans="1:9" ht="292.25" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="B48" t="s" s="9">
-        <v>236</v>
-      </c>
-      <c r="C48" t="s" s="10">
-        <v>237</v>
-      </c>
-      <c r="D48" t="s" s="13">
-        <v>238</v>
       </c>
       <c r="E48" s="11">
         <v>2019</v>
       </c>
-      <c r="F48" t="s" s="9">
-        <v>239</v>
+      <c r="F48" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="G48" s="11">
         <v>2</v>
       </c>
-      <c r="H48" t="s" s="9">
+      <c r="H48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I48" t="s" s="12">
+      <c r="I48" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" ht="156.35" customHeight="1">
-      <c r="A49" t="s" s="9">
+    <row r="49" spans="1:9" ht="156.25" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="B49" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C49" t="s" s="10">
-        <v>242</v>
-      </c>
-      <c r="D49" t="s" s="13">
-        <v>243</v>
       </c>
       <c r="E49" s="11">
         <v>2018</v>
       </c>
-      <c r="F49" t="s" s="9">
-        <v>244</v>
+      <c r="F49" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="G49" s="11">
         <v>8</v>
       </c>
-      <c r="H49" t="s" s="9">
+      <c r="H49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I49" t="s" s="12">
+      <c r="I49" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" ht="190.35" customHeight="1">
-      <c r="A50" t="s" s="9">
+    <row r="50" spans="1:9" ht="190.25" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="B50" t="s" s="9">
-        <v>246</v>
-      </c>
-      <c r="C50" t="s" s="10">
-        <v>247</v>
-      </c>
-      <c r="D50" t="s" s="13">
-        <v>248</v>
       </c>
       <c r="E50" s="11">
         <v>2019</v>
       </c>
-      <c r="F50" t="s" s="9">
-        <v>249</v>
+      <c r="F50" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="G50" s="11">
         <v>2</v>
       </c>
-      <c r="H50" t="s" s="9">
+      <c r="H50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I50" t="s" s="12">
+      <c r="I50" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" ht="428.35" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>250</v>
-      </c>
-      <c r="B51" t="s" s="9">
-        <v>251</v>
-      </c>
-      <c r="C51" t="s" s="13">
-        <v>83</v>
-      </c>
-      <c r="D51" t="s" s="13">
-        <v>252</v>
+    <row r="51" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="E51" s="11">
         <v>2019</v>
       </c>
-      <c r="F51" t="s" s="9">
-        <v>253</v>
+      <c r="F51" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="G51" s="11">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="9">
+      <c r="H51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I51" t="s" s="12">
+      <c r="I51" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" ht="139.35" customHeight="1">
-      <c r="A52" t="s" s="9">
+    <row r="52" spans="1:9" ht="139.25" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="B52" t="s" s="9">
-        <v>255</v>
-      </c>
-      <c r="C52" t="s" s="10">
-        <v>256</v>
-      </c>
-      <c r="D52" t="s" s="13">
-        <v>257</v>
       </c>
       <c r="E52" s="11">
         <v>2015</v>
       </c>
-      <c r="F52" t="s" s="9">
-        <v>258</v>
+      <c r="F52" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="G52" s="11">
         <v>20</v>
       </c>
-      <c r="H52" t="s" s="9">
-        <v>161</v>
-      </c>
-      <c r="I52" t="s" s="12">
+      <c r="H52" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" ht="292.35" customHeight="1">
-      <c r="A53" t="s" s="9">
+    <row r="53" spans="1:9" ht="292.25" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="B53" t="s" s="9">
-        <v>260</v>
-      </c>
-      <c r="C53" t="s" s="10">
-        <v>261</v>
-      </c>
-      <c r="D53" t="s" s="13">
-        <v>262</v>
       </c>
       <c r="E53" s="11">
         <v>2012</v>
       </c>
-      <c r="F53" t="s" s="9">
-        <v>263</v>
+      <c r="F53" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="G53" s="11">
         <v>13</v>
       </c>
-      <c r="H53" t="s" s="9">
+      <c r="H53" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I53" t="s" s="12">
+      <c r="I53" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" ht="309.35" customHeight="1">
-      <c r="A54" t="s" s="9">
+    <row r="54" spans="1:9" ht="309.25" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="B54" t="s" s="9">
-        <v>265</v>
-      </c>
-      <c r="C54" t="s" s="10">
-        <v>266</v>
-      </c>
-      <c r="D54" t="s" s="13">
-        <v>267</v>
       </c>
       <c r="E54" s="11">
         <v>2021</v>
       </c>
-      <c r="F54" t="s" s="9">
-        <v>268</v>
+      <c r="F54" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="G54" s="11">
         <v>1</v>
       </c>
-      <c r="H54" t="s" s="9">
+      <c r="H54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I54" t="s" s="12">
+      <c r="I54" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" ht="534.35" customHeight="1">
-      <c r="A55" t="s" s="9">
+    <row r="55" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="B55" t="s" s="9">
-        <v>270</v>
-      </c>
-      <c r="C55" t="s" s="10">
-        <v>271</v>
-      </c>
-      <c r="D55" t="s" s="23">
-        <v>272</v>
       </c>
       <c r="E55" s="11">
         <v>2016</v>
       </c>
-      <c r="F55" t="s" s="9">
-        <v>56</v>
+      <c r="F55" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G55" s="11">
         <v>39</v>
       </c>
-      <c r="H55" t="s" s="9">
+      <c r="H55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I55" t="s" s="12">
+      <c r="I55" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" ht="244.05" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>273</v>
-      </c>
-      <c r="B56" t="s" s="9">
-        <v>274</v>
-      </c>
-      <c r="C56" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="D56" t="s" s="19">
-        <v>275</v>
+    <row r="56" spans="1:9" ht="244" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="E56" s="11">
         <v>2018</v>
       </c>
-      <c r="F56" t="s" s="9">
-        <v>276</v>
+      <c r="F56" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="G56" s="11">
         <v>1</v>
       </c>
-      <c r="H56" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="I56" t="s" s="12">
+      <c r="H56" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" ht="161.35" customHeight="1">
-      <c r="A57" t="s" s="9">
+    <row r="57" spans="1:9" ht="161.25" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>277</v>
-      </c>
-      <c r="B57" t="s" s="9">
-        <v>278</v>
-      </c>
-      <c r="C57" t="s" s="10">
-        <v>279</v>
-      </c>
-      <c r="D57" t="s" s="24">
-        <v>280</v>
       </c>
       <c r="E57" s="11">
         <v>2016</v>
       </c>
-      <c r="F57" t="s" s="9">
-        <v>281</v>
+      <c r="F57" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="G57" s="11">
         <v>17</v>
       </c>
-      <c r="H57" t="s" s="9">
+      <c r="H57" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="258.25" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="I57" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" ht="258.35" customHeight="1">
-      <c r="A58" t="s" s="9">
+      <c r="D58" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="B58" t="s" s="9">
-        <v>284</v>
-      </c>
-      <c r="C58" t="s" s="10">
-        <v>285</v>
-      </c>
-      <c r="D58" t="s" s="13">
-        <v>286</v>
       </c>
       <c r="E58" s="11">
         <v>2020</v>
       </c>
-      <c r="F58" t="s" s="25">
-        <v>287</v>
+      <c r="F58" s="25" t="s">
+        <v>284</v>
       </c>
       <c r="G58" s="11">
         <v>0</v>
       </c>
-      <c r="H58" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="I58" t="s" s="12">
+      <c r="H58" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I58" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" ht="275.35" customHeight="1">
-      <c r="A59" t="s" s="15">
+    <row r="59" spans="1:9" ht="275.25" customHeight="1">
+      <c r="A59" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="B59" t="s" s="9">
-        <v>289</v>
-      </c>
-      <c r="C59" t="s" s="10">
-        <v>290</v>
-      </c>
-      <c r="D59" t="s" s="13">
-        <v>291</v>
       </c>
       <c r="E59" s="11">
         <v>2015</v>
       </c>
-      <c r="F59" t="s" s="9">
-        <v>292</v>
+      <c r="F59" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="G59" s="11">
         <v>129</v>
       </c>
-      <c r="H59" t="s" s="9">
+      <c r="H59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I59" t="s" s="12">
+      <c r="I59" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" ht="681.35" customHeight="1">
-      <c r="A60" t="s" s="9">
+    <row r="60" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="B60" t="s" s="9">
-        <v>294</v>
-      </c>
-      <c r="C60" t="s" s="10">
-        <v>295</v>
-      </c>
-      <c r="D60" t="s" s="9">
-        <v>296</v>
       </c>
       <c r="E60" s="11">
         <v>2021</v>
       </c>
-      <c r="F60" t="s" s="9">
-        <v>297</v>
+      <c r="F60" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="G60" s="11">
         <v>1</v>
       </c>
-      <c r="H60" t="s" s="9">
+      <c r="H60" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" ht="190.35" customHeight="1">
-      <c r="A61" t="s" s="9">
+    <row r="61" spans="1:9" ht="190.25" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="B61" t="s" s="9">
-        <v>299</v>
-      </c>
-      <c r="C61" t="s" s="10">
-        <v>300</v>
-      </c>
-      <c r="D61" t="s" s="13">
-        <v>301</v>
       </c>
       <c r="E61" s="11">
         <v>2018</v>
       </c>
-      <c r="F61" t="s" s="9">
+      <c r="F61" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G61" s="11">
         <v>5</v>
       </c>
-      <c r="H61" t="s" s="9">
+      <c r="H61" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" ht="254.35" customHeight="1">
-      <c r="A62" t="s" s="9">
-        <v>302</v>
+    <row r="62" spans="1:9" ht="254.25" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="B62" s="14"/>
-      <c r="C62" t="s" s="10">
-        <v>303</v>
-      </c>
-      <c r="D62" t="s" s="13">
-        <v>304</v>
+      <c r="C62" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="E62" s="11">
         <v>2020</v>
       </c>
-      <c r="F62" t="s" s="9">
-        <v>305</v>
+      <c r="F62" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="G62" s="11">
         <v>2</v>
       </c>
-      <c r="H62" t="s" s="9">
+      <c r="H62" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I62" t="s" s="12">
+      <c r="I62" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" ht="8.35" customHeight="1" hidden="1">
-      <c r="A63" t="s" s="9">
-        <v>306</v>
-      </c>
-      <c r="B63" t="s" s="9">
-        <v>307</v>
+    <row r="63" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="C63" s="13"/>
-      <c r="D63" t="s" s="13">
-        <v>308</v>
+      <c r="D63" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="E63" s="11">
         <v>2015</v>
       </c>
-      <c r="F63" t="s" s="9">
-        <v>309</v>
+      <c r="F63" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="G63" s="11">
         <v>16</v>
       </c>
-      <c r="H63" t="s" s="9">
-        <v>161</v>
+      <c r="H63" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" ht="8.35" customHeight="1" hidden="1">
-      <c r="A64" t="s" s="9">
-        <v>310</v>
-      </c>
-      <c r="B64" t="s" s="9">
-        <v>311</v>
+    <row r="64" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="C64" s="13"/>
-      <c r="D64" t="s" s="13">
-        <v>312</v>
+      <c r="D64" s="13" t="s">
+        <v>309</v>
       </c>
       <c r="E64" s="11">
         <v>2012</v>
       </c>
-      <c r="F64" t="s" s="9">
-        <v>313</v>
+      <c r="F64" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="G64" s="11">
         <v>142</v>
       </c>
-      <c r="H64" t="s" s="9">
+      <c r="H64" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" ht="8.35" customHeight="1" hidden="1">
-      <c r="A65" t="s" s="9">
-        <v>314</v>
-      </c>
-      <c r="B65" t="s" s="9">
-        <v>315</v>
+    <row r="65" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="C65" s="24"/>
-      <c r="D65" t="s" s="24">
-        <v>316</v>
+      <c r="D65" s="24" t="s">
+        <v>313</v>
       </c>
       <c r="E65" s="11">
         <v>2015</v>
       </c>
-      <c r="F65" t="s" s="26">
-        <v>317</v>
+      <c r="F65" s="26" t="s">
+        <v>314</v>
       </c>
       <c r="G65" s="11">
         <v>191</v>
       </c>
-      <c r="H65" t="s" s="9">
-        <v>83</v>
+      <c r="H65" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" ht="8.35" customHeight="1" hidden="1">
-      <c r="A66" t="s" s="9">
-        <v>318</v>
-      </c>
-      <c r="B66" t="s" s="9">
-        <v>319</v>
+    <row r="66" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="C66" s="13"/>
-      <c r="D66" t="s" s="13">
-        <v>320</v>
+      <c r="D66" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="E66" s="11">
         <v>2019</v>
       </c>
-      <c r="F66" t="s" s="9">
-        <v>239</v>
+      <c r="F66" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="G66" s="11">
         <v>1</v>
       </c>
-      <c r="H66" t="s" s="9">
+      <c r="H66" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" ht="8.35" customHeight="1" hidden="1">
-      <c r="A67" t="s" s="9">
-        <v>321</v>
-      </c>
-      <c r="B67" t="s" s="9">
-        <v>322</v>
+    <row r="67" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>319</v>
       </c>
       <c r="C67" s="27"/>
-      <c r="D67" t="s" s="27">
-        <v>323</v>
+      <c r="D67" s="27" t="s">
+        <v>320</v>
       </c>
       <c r="E67" s="11">
         <v>2016</v>
       </c>
-      <c r="F67" t="s" s="28">
-        <v>324</v>
+      <c r="F67" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="G67" s="11">
         <v>173</v>
       </c>
-      <c r="H67" t="s" s="9">
-        <v>83</v>
+      <c r="H67" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" ht="8.35" customHeight="1" hidden="1">
-      <c r="A68" t="s" s="9">
-        <v>325</v>
-      </c>
-      <c r="B68" t="s" s="9">
-        <v>326</v>
+    <row r="68" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="C68" s="29"/>
-      <c r="D68" t="s" s="29">
-        <v>327</v>
+      <c r="D68" s="29" t="s">
+        <v>324</v>
       </c>
       <c r="E68" s="11">
         <v>2020</v>
       </c>
-      <c r="F68" t="s" s="9">
-        <v>328</v>
+      <c r="F68" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="G68" s="11">
         <v>7</v>
       </c>
-      <c r="H68" t="s" s="9">
-        <v>83</v>
+      <c r="H68" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" ht="8.35" customHeight="1" hidden="1">
-      <c r="A69" t="s" s="9">
-        <v>329</v>
-      </c>
-      <c r="B69" t="s" s="9">
-        <v>330</v>
+    <row r="69" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="C69" s="13"/>
-      <c r="D69" t="s" s="13">
-        <v>331</v>
+      <c r="D69" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="E69" s="11">
         <v>2021</v>
       </c>
-      <c r="F69" t="s" s="9">
-        <v>332</v>
+      <c r="F69" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="G69" s="11">
         <v>6</v>
       </c>
-      <c r="H69" t="s" s="9">
+      <c r="H69" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" ht="8.35" customHeight="1" hidden="1">
-      <c r="A70" t="s" s="9">
-        <v>333</v>
-      </c>
-      <c r="B70" t="s" s="9">
-        <v>334</v>
+    <row r="70" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" t="s" s="9">
-        <v>335</v>
+      <c r="D70" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="E70" s="11">
         <v>2020</v>
       </c>
-      <c r="F70" t="s" s="9">
-        <v>336</v>
+      <c r="F70" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="G70" s="11">
         <v>14</v>
       </c>
-      <c r="H70" t="s" s="9">
+      <c r="H70" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" ht="8.35" customHeight="1" hidden="1">
-      <c r="A71" t="s" s="9">
-        <v>337</v>
-      </c>
-      <c r="B71" t="s" s="9">
-        <v>338</v>
+    <row r="71" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="C71" s="24"/>
-      <c r="D71" t="s" s="24">
-        <v>339</v>
+      <c r="D71" s="24" t="s">
+        <v>336</v>
       </c>
       <c r="E71" s="11">
         <v>2017</v>
       </c>
-      <c r="F71" t="s" s="9">
-        <v>340</v>
+      <c r="F71" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="G71" s="11">
         <v>9</v>
       </c>
-      <c r="H71" t="s" s="9">
-        <v>161</v>
+      <c r="H71" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" ht="8.35" customHeight="1" hidden="1">
-      <c r="A72" t="s" s="9">
-        <v>341</v>
-      </c>
-      <c r="B72" t="s" s="9">
-        <v>342</v>
+    <row r="72" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="C72" s="13"/>
-      <c r="D72" t="s" s="13">
-        <v>343</v>
+      <c r="D72" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="E72" s="11">
         <v>2017</v>
       </c>
-      <c r="F72" t="s" s="9">
-        <v>344</v>
+      <c r="F72" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="G72" s="11">
         <v>29</v>
       </c>
-      <c r="H72" t="s" s="9">
+      <c r="H72" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" ht="8.35" customHeight="1" hidden="1">
-      <c r="A73" t="s" s="9">
-        <v>345</v>
-      </c>
-      <c r="B73" t="s" s="9">
-        <v>346</v>
+    <row r="73" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="C73" s="24"/>
-      <c r="D73" t="s" s="24">
-        <v>347</v>
+      <c r="D73" s="24" t="s">
+        <v>344</v>
       </c>
       <c r="E73" s="11">
         <v>2017</v>
       </c>
-      <c r="F73" t="s" s="9">
-        <v>348</v>
+      <c r="F73" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="G73" s="11">
         <v>14</v>
       </c>
-      <c r="H73" t="s" s="9">
-        <v>161</v>
+      <c r="H73" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" ht="8.35" customHeight="1" hidden="1">
-      <c r="A74" t="s" s="9">
-        <v>349</v>
-      </c>
-      <c r="B74" t="s" s="9">
-        <v>350</v>
+    <row r="74" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" t="s" s="9">
-        <v>351</v>
+      <c r="D74" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E74" s="11">
         <v>2016</v>
       </c>
-      <c r="F74" t="s" s="9">
-        <v>352</v>
+      <c r="F74" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="G74" s="11">
         <v>205</v>
       </c>
-      <c r="H74" t="s" s="9">
+      <c r="H74" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" ht="8.35" customHeight="1" hidden="1">
-      <c r="A75" t="s" s="9">
-        <v>353</v>
-      </c>
-      <c r="B75" t="s" s="9">
-        <v>354</v>
+    <row r="75" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A75" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="D75" t="s" s="9">
-        <v>355</v>
+      <c r="D75" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="E75" s="11">
         <v>2021</v>
       </c>
-      <c r="F75" t="s" s="9">
-        <v>356</v>
+      <c r="F75" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="G75" s="11">
         <v>1</v>
       </c>
-      <c r="H75" t="s" s="9">
+      <c r="H75" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" ht="8.35" customHeight="1" hidden="1">
-      <c r="A76" t="s" s="9">
-        <v>357</v>
-      </c>
-      <c r="B76" t="s" s="9">
-        <v>358</v>
+    <row r="76" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A76" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>355</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" t="s" s="13">
-        <v>359</v>
+      <c r="D76" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="E76" s="11">
         <v>2016</v>
       </c>
-      <c r="F76" t="s" s="9">
-        <v>360</v>
+      <c r="F76" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="G76" s="11">
         <v>36</v>
       </c>
-      <c r="H76" t="s" s="9">
-        <v>161</v>
+      <c r="H76" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" ht="8.35" customHeight="1" hidden="1">
-      <c r="A77" t="s" s="9">
-        <v>361</v>
-      </c>
-      <c r="B77" t="s" s="9">
-        <v>362</v>
+    <row r="77" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="C77" s="24"/>
-      <c r="D77" t="s" s="24">
-        <v>363</v>
+      <c r="D77" s="24" t="s">
+        <v>360</v>
       </c>
       <c r="E77" s="11">
         <v>2019</v>
       </c>
-      <c r="F77" t="s" s="9">
-        <v>364</v>
+      <c r="F77" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="G77" s="11">
         <v>5</v>
       </c>
-      <c r="H77" t="s" s="9">
-        <v>282</v>
+      <c r="H77" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" ht="8.35" customHeight="1" hidden="1">
-      <c r="A78" t="s" s="9">
-        <v>365</v>
-      </c>
-      <c r="B78" t="s" s="9">
-        <v>366</v>
+    <row r="78" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" t="s" s="13">
-        <v>367</v>
+      <c r="D78" s="13" t="s">
+        <v>364</v>
       </c>
       <c r="E78" s="11">
         <v>2016</v>
       </c>
-      <c r="F78" t="s" s="9">
-        <v>368</v>
+      <c r="F78" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="G78" s="11">
         <v>16</v>
       </c>
-      <c r="H78" t="s" s="9">
+      <c r="H78" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" ht="8.35" customHeight="1" hidden="1">
-      <c r="A79" t="s" s="9">
-        <v>369</v>
-      </c>
-      <c r="B79" t="s" s="9">
-        <v>370</v>
+    <row r="79" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>367</v>
       </c>
       <c r="C79" s="17"/>
-      <c r="D79" t="s" s="17">
-        <v>371</v>
+      <c r="D79" s="17" t="s">
+        <v>368</v>
       </c>
       <c r="E79" s="11">
         <v>2014</v>
       </c>
-      <c r="F79" t="s" s="9">
-        <v>372</v>
+      <c r="F79" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="G79" s="11">
         <v>93</v>
       </c>
-      <c r="H79" t="s" s="9">
+      <c r="H79" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" ht="8.35" customHeight="1" hidden="1">
-      <c r="A80" t="s" s="9">
-        <v>373</v>
-      </c>
-      <c r="B80" t="s" s="9">
-        <v>374</v>
+    <row r="80" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="C80" s="27"/>
-      <c r="D80" t="s" s="27">
-        <v>375</v>
+      <c r="D80" s="27" t="s">
+        <v>372</v>
       </c>
       <c r="E80" s="11">
         <v>2020</v>
       </c>
-      <c r="F80" t="s" s="9">
-        <v>376</v>
+      <c r="F80" s="9" t="s">
+        <v>373</v>
       </c>
       <c r="G80" s="11">
         <v>2</v>
       </c>
-      <c r="H80" t="s" s="9">
-        <v>140</v>
+      <c r="H80" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" ht="8.35" customHeight="1" hidden="1">
-      <c r="A81" t="s" s="9">
-        <v>377</v>
-      </c>
-      <c r="B81" t="s" s="9">
-        <v>378</v>
+    <row r="81" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="C81" s="17"/>
-      <c r="D81" t="s" s="17">
-        <v>379</v>
+      <c r="D81" s="17" t="s">
+        <v>376</v>
       </c>
       <c r="E81" s="11">
         <v>2020</v>
       </c>
-      <c r="F81" t="s" s="9">
-        <v>380</v>
+      <c r="F81" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="G81" s="11">
         <v>2</v>
       </c>
-      <c r="H81" t="s" s="9">
+      <c r="H81" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" ht="8.35" customHeight="1" hidden="1">
-      <c r="A82" t="s" s="9">
-        <v>381</v>
-      </c>
-      <c r="B82" t="s" s="9">
-        <v>382</v>
+    <row r="82" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="C82" s="30"/>
-      <c r="D82" t="s" s="30">
-        <v>383</v>
+      <c r="D82" s="30" t="s">
+        <v>380</v>
       </c>
       <c r="E82" s="11">
         <v>2020</v>
       </c>
-      <c r="F82" t="s" s="9">
-        <v>384</v>
+      <c r="F82" s="9" t="s">
+        <v>381</v>
       </c>
       <c r="G82" s="11">
         <v>7</v>
       </c>
-      <c r="H82" t="s" s="9">
+      <c r="H82" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" ht="8.35" customHeight="1" hidden="1">
-      <c r="A83" t="s" s="9">
-        <v>385</v>
-      </c>
-      <c r="B83" t="s" s="9">
-        <v>386</v>
+    <row r="83" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A83" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="C83" s="17"/>
-      <c r="D83" t="s" s="17">
-        <v>387</v>
+      <c r="D83" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="E83" s="11">
         <v>2016</v>
       </c>
-      <c r="F83" t="s" s="9">
-        <v>388</v>
+      <c r="F83" s="9" t="s">
+        <v>385</v>
       </c>
       <c r="G83" s="11">
         <v>7</v>
       </c>
-      <c r="H83" t="s" s="9">
+      <c r="H83" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" ht="8.35" customHeight="1" hidden="1">
-      <c r="A84" t="s" s="9">
-        <v>389</v>
-      </c>
-      <c r="B84" t="s" s="9">
-        <v>390</v>
+    <row r="84" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="C84" s="13"/>
-      <c r="D84" t="s" s="13">
-        <v>391</v>
+      <c r="D84" s="13" t="s">
+        <v>388</v>
       </c>
       <c r="E84" s="11">
         <v>2019</v>
       </c>
-      <c r="F84" t="s" s="9">
-        <v>239</v>
+      <c r="F84" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="G84" s="11">
         <v>12</v>
       </c>
-      <c r="H84" t="s" s="9">
+      <c r="H84" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" ht="8.35" customHeight="1" hidden="1">
-      <c r="A85" t="s" s="9">
-        <v>392</v>
-      </c>
-      <c r="B85" t="s" s="9">
-        <v>393</v>
+    <row r="85" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="C85" s="24"/>
-      <c r="D85" t="s" s="24">
-        <v>394</v>
+      <c r="D85" s="24" t="s">
+        <v>391</v>
       </c>
       <c r="E85" s="11">
         <v>2019</v>
       </c>
-      <c r="F85" t="s" s="31">
-        <v>395</v>
+      <c r="F85" s="31" t="s">
+        <v>392</v>
       </c>
       <c r="G85" s="11">
         <v>9</v>
       </c>
-      <c r="H85" t="s" s="9">
+      <c r="H85" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" ht="8.35" customHeight="1" hidden="1">
-      <c r="A86" t="s" s="9">
-        <v>396</v>
-      </c>
-      <c r="B86" t="s" s="9">
-        <v>397</v>
+    <row r="86" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>394</v>
       </c>
       <c r="C86" s="32"/>
-      <c r="D86" t="s" s="32">
-        <v>398</v>
+      <c r="D86" s="32" t="s">
+        <v>395</v>
       </c>
       <c r="E86" s="11">
         <v>2019</v>
       </c>
-      <c r="F86" t="s" s="9">
-        <v>399</v>
+      <c r="F86" s="9" t="s">
+        <v>396</v>
       </c>
       <c r="G86" s="11">
         <v>9</v>
       </c>
-      <c r="H86" t="s" s="9">
-        <v>83</v>
+      <c r="H86" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" ht="8.35" customHeight="1" hidden="1">
-      <c r="A87" t="s" s="9">
-        <v>400</v>
-      </c>
-      <c r="B87" t="s" s="9">
-        <v>401</v>
+    <row r="87" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="C87" s="9"/>
-      <c r="D87" t="s" s="9">
-        <v>402</v>
+      <c r="D87" s="9" t="s">
+        <v>399</v>
       </c>
       <c r="E87" s="11">
         <v>2015</v>
       </c>
-      <c r="F87" t="s" s="9">
-        <v>403</v>
+      <c r="F87" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="G87" s="11">
         <v>475</v>
       </c>
-      <c r="H87" t="s" s="9">
+      <c r="H87" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" ht="8.35" customHeight="1" hidden="1">
-      <c r="A88" t="s" s="9">
-        <v>404</v>
-      </c>
-      <c r="B88" t="s" s="9">
-        <v>405</v>
+    <row r="88" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A88" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="C88" s="9"/>
-      <c r="D88" t="s" s="9">
-        <v>406</v>
+      <c r="D88" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="E88" s="11">
         <v>2017</v>
       </c>
-      <c r="F88" t="s" s="9">
-        <v>407</v>
+      <c r="F88" s="9" t="s">
+        <v>404</v>
       </c>
       <c r="G88" s="11">
         <v>73</v>
       </c>
-      <c r="H88" t="s" s="9">
+      <c r="H88" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" ht="8.35" customHeight="1" hidden="1">
-      <c r="A89" t="s" s="9">
-        <v>408</v>
-      </c>
-      <c r="B89" t="s" s="9">
-        <v>409</v>
+    <row r="89" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A89" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="C89" s="9"/>
-      <c r="D89" t="s" s="9">
-        <v>410</v>
+      <c r="D89" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="E89" s="11">
         <v>2018</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
-      <c r="H89" t="s" s="9">
+      <c r="H89" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" ht="8.35" customHeight="1" hidden="1">
-      <c r="A90" t="s" s="9">
-        <v>411</v>
-      </c>
-      <c r="B90" t="s" s="9">
-        <v>412</v>
+    <row r="90" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="C90" s="9"/>
-      <c r="D90" t="s" s="9">
-        <v>413</v>
+      <c r="D90" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="E90" s="11">
         <v>2018</v>
       </c>
-      <c r="F90" t="s" s="9">
-        <v>414</v>
+      <c r="F90" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="G90" s="11">
         <v>31</v>
       </c>
-      <c r="H90" t="s" s="9">
+      <c r="H90" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" ht="8.35" customHeight="1" hidden="1">
-      <c r="A91" t="s" s="9">
-        <v>415</v>
-      </c>
-      <c r="B91" t="s" s="9">
-        <v>416</v>
+    <row r="91" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="C91" s="9"/>
-      <c r="D91" t="s" s="9">
-        <v>417</v>
+      <c r="D91" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="E91" s="11">
         <v>2017</v>
       </c>
-      <c r="F91" t="s" s="27">
-        <v>418</v>
+      <c r="F91" s="27" t="s">
+        <v>415</v>
       </c>
       <c r="G91" s="11">
         <v>9</v>
       </c>
-      <c r="H91" t="s" s="9">
-        <v>161</v>
+      <c r="H91" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" ht="8.35" customHeight="1" hidden="1">
-      <c r="A92" t="s" s="9">
-        <v>419</v>
-      </c>
-      <c r="B92" t="s" s="9">
-        <v>420</v>
+    <row r="92" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A92" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="C92" s="9"/>
-      <c r="D92" t="s" s="9">
-        <v>421</v>
+      <c r="D92" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="E92" s="11">
         <v>2019</v>
       </c>
-      <c r="F92" t="s" s="9">
-        <v>422</v>
+      <c r="F92" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="G92" s="11">
         <v>18</v>
       </c>
-      <c r="H92" t="s" s="9">
+      <c r="H92" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" ht="8.35" customHeight="1" hidden="1">
-      <c r="A93" t="s" s="9">
-        <v>423</v>
-      </c>
-      <c r="B93" t="s" s="9">
-        <v>424</v>
+    <row r="93" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="C93" s="9"/>
-      <c r="D93" t="s" s="9">
-        <v>425</v>
+      <c r="D93" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="E93" s="11">
         <v>2018</v>
       </c>
-      <c r="F93" t="s" s="9">
-        <v>426</v>
+      <c r="F93" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="G93" s="11">
         <v>35</v>
       </c>
-      <c r="H93" t="s" s="9">
+      <c r="H93" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" ht="8.35" customHeight="1" hidden="1">
-      <c r="A94" t="s" s="9">
-        <v>427</v>
-      </c>
-      <c r="B94" t="s" s="9">
-        <v>428</v>
+    <row r="94" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A94" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" t="s" s="13">
-        <v>429</v>
+      <c r="D94" s="13" t="s">
+        <v>426</v>
       </c>
       <c r="E94" s="11">
         <v>2017</v>
       </c>
-      <c r="F94" t="s" s="9">
-        <v>430</v>
+      <c r="F94" s="9" t="s">
+        <v>427</v>
       </c>
       <c r="G94" s="11">
         <v>3</v>
       </c>
-      <c r="H94" t="s" s="9">
+      <c r="H94" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" ht="8.35" customHeight="1" hidden="1">
-      <c r="A95" t="s" s="9">
-        <v>431</v>
-      </c>
-      <c r="B95" t="s" s="9">
-        <v>432</v>
+    <row r="95" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="C95" s="24"/>
-      <c r="D95" t="s" s="24">
-        <v>433</v>
+      <c r="D95" s="24" t="s">
+        <v>430</v>
       </c>
       <c r="E95" s="11">
         <v>2013</v>
       </c>
-      <c r="F95" t="s" s="31">
-        <v>434</v>
+      <c r="F95" s="31" t="s">
+        <v>431</v>
       </c>
       <c r="G95" s="11">
         <v>4</v>
       </c>
-      <c r="H95" t="s" s="9">
-        <v>83</v>
+      <c r="H95" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" ht="8.35" customHeight="1" hidden="1">
-      <c r="A96" t="s" s="9">
-        <v>435</v>
-      </c>
-      <c r="B96" t="s" s="9">
-        <v>436</v>
+    <row r="96" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A96" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>433</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" t="s" s="13">
-        <v>437</v>
+      <c r="D96" s="13" t="s">
+        <v>434</v>
       </c>
       <c r="E96" s="11">
         <v>2013</v>
       </c>
-      <c r="F96" t="s" s="9">
-        <v>438</v>
+      <c r="F96" s="9" t="s">
+        <v>435</v>
       </c>
       <c r="G96" s="11">
         <v>4</v>
       </c>
-      <c r="H96" t="s" s="9">
+      <c r="H96" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" ht="8.35" customHeight="1" hidden="1">
-      <c r="A97" t="s" s="9">
-        <v>439</v>
-      </c>
-      <c r="B97" t="s" s="9">
-        <v>440</v>
+    <row r="97" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="C97" s="32"/>
-      <c r="D97" t="s" s="32">
-        <v>441</v>
+      <c r="D97" s="32" t="s">
+        <v>438</v>
       </c>
       <c r="E97" s="11">
         <v>2021</v>
       </c>
-      <c r="F97" t="s" s="9">
-        <v>442</v>
+      <c r="F97" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="G97" s="11">
         <v>1</v>
       </c>
-      <c r="H97" t="s" s="9">
-        <v>83</v>
+      <c r="H97" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" ht="8.35" customHeight="1" hidden="1">
-      <c r="A98" t="s" s="9">
-        <v>443</v>
-      </c>
-      <c r="B98" t="s" s="9">
-        <v>444</v>
+    <row r="98" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="C98" s="24"/>
-      <c r="D98" t="s" s="24">
-        <v>445</v>
+      <c r="D98" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="E98" s="11">
         <v>2020</v>
       </c>
-      <c r="F98" t="s" s="9">
-        <v>446</v>
+      <c r="F98" s="9" t="s">
+        <v>443</v>
       </c>
       <c r="G98" s="11">
         <v>0</v>
       </c>
-      <c r="H98" t="s" s="9">
+      <c r="H98" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" ht="8.35" customHeight="1" hidden="1">
-      <c r="A99" t="s" s="9">
-        <v>447</v>
-      </c>
-      <c r="B99" t="s" s="9">
-        <v>448</v>
+    <row r="99" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="C99" s="9"/>
-      <c r="D99" t="s" s="9">
-        <v>449</v>
+      <c r="D99" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="E99" s="11">
         <v>2018</v>
       </c>
-      <c r="F99" t="s" s="9">
-        <v>352</v>
+      <c r="F99" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="G99" s="11">
         <v>41</v>
       </c>
-      <c r="H99" t="s" s="9">
+      <c r="H99" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" ht="8.35" customHeight="1" hidden="1">
-      <c r="A100" t="s" s="9">
-        <v>450</v>
-      </c>
-      <c r="B100" t="s" s="9">
-        <v>451</v>
+    <row r="100" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A100" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>448</v>
       </c>
       <c r="C100" s="9"/>
-      <c r="D100" t="s" s="9">
-        <v>452</v>
+      <c r="D100" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="E100" s="11">
         <v>2021</v>
       </c>
-      <c r="F100" t="s" s="9">
-        <v>453</v>
+      <c r="F100" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="G100" s="11">
         <v>2</v>
       </c>
-      <c r="H100" t="s" s="9">
+      <c r="H100" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" ht="8.35" customHeight="1" hidden="1">
-      <c r="A101" t="s" s="9">
-        <v>454</v>
-      </c>
-      <c r="B101" t="s" s="9">
-        <v>455</v>
+    <row r="101" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A101" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>452</v>
       </c>
       <c r="C101" s="33"/>
-      <c r="D101" t="s" s="33">
-        <v>456</v>
+      <c r="D101" s="33" t="s">
+        <v>453</v>
       </c>
       <c r="E101" s="11">
         <v>2020</v>
       </c>
-      <c r="F101" t="s" s="9">
-        <v>457</v>
+      <c r="F101" s="9" t="s">
+        <v>454</v>
       </c>
       <c r="G101" s="11">
         <v>0</v>
       </c>
-      <c r="H101" t="s" s="9">
-        <v>83</v>
+      <c r="H101" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" ht="8.35" customHeight="1" hidden="1">
-      <c r="A102" t="s" s="9">
-        <v>458</v>
-      </c>
-      <c r="B102" t="s" s="9">
-        <v>459</v>
+    <row r="102" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A102" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>456</v>
       </c>
       <c r="C102" s="23"/>
-      <c r="D102" t="s" s="23">
-        <v>460</v>
+      <c r="D102" s="23" t="s">
+        <v>457</v>
       </c>
       <c r="E102" s="11">
         <v>2021</v>
       </c>
-      <c r="F102" t="s" s="9">
-        <v>461</v>
+      <c r="F102" s="9" t="s">
+        <v>458</v>
       </c>
       <c r="G102" s="11">
         <v>2</v>
       </c>
-      <c r="H102" t="s" s="9">
+      <c r="H102" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" ht="8.35" customHeight="1" hidden="1">
-      <c r="A103" t="s" s="9">
-        <v>462</v>
-      </c>
-      <c r="B103" t="s" s="9">
-        <v>463</v>
+    <row r="103" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="C103" s="9"/>
-      <c r="D103" t="s" s="9">
-        <v>464</v>
+      <c r="D103" s="9" t="s">
+        <v>461</v>
       </c>
       <c r="E103" s="11">
         <v>2017</v>
       </c>
-      <c r="F103" t="s" s="9">
-        <v>56</v>
+      <c r="F103" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G103" s="11">
         <v>44</v>
       </c>
-      <c r="H103" t="s" s="9">
+      <c r="H103" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I103" s="14"/>
     </row>
-    <row r="104" ht="8.35" customHeight="1" hidden="1">
-      <c r="A104" t="s" s="9">
-        <v>465</v>
-      </c>
-      <c r="B104" t="s" s="9">
-        <v>466</v>
+    <row r="104" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>463</v>
       </c>
       <c r="C104" s="13"/>
-      <c r="D104" t="s" s="13">
-        <v>467</v>
+      <c r="D104" s="13" t="s">
+        <v>464</v>
       </c>
       <c r="E104" s="11">
         <v>2020</v>
       </c>
-      <c r="F104" t="s" s="9">
-        <v>468</v>
+      <c r="F104" s="9" t="s">
+        <v>465</v>
       </c>
       <c r="G104" s="11">
         <v>1</v>
       </c>
-      <c r="H104" t="s" s="9">
+      <c r="H104" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I104" s="14"/>
     </row>
-    <row r="105" ht="8.35" customHeight="1" hidden="1">
+    <row r="105" spans="1:9" ht="8.25" hidden="1" customHeight="1">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -8646,7 +8645,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" ht="14.7" customHeight="1">
+    <row r="106" spans="1:9" ht="14.75" customHeight="1">
       <c r="A106" s="34"/>
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
@@ -8659,171 +8658,175 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-58923-3_14"/>
-    <hyperlink ref="F2" r:id="rId2" location="" tooltip="" display="European Conference on Software Architecture"/>
-    <hyperlink ref="B3" r:id="rId3" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121217302121?casa_token=YsOHRjpBJCkAAAAA:IBROO8zkqddpzoSZ_soHvgzLB3eMNJaldR6BcqkdGJGQX6lrDwAvI_3fi8Ep8vAcNc6-LX-kGjQ"/>
-    <hyperlink ref="D3" r:id="rId4" location="" tooltip="" display="Large Software Companies need to support the continuous and fast delivery of customer value in both the short and long term. However, this can be impeded if the evolution and maintenance of existing systems is hampered by what has been recently termed Technical Debt (TD). Specifically, Architectural TD has received increased attention in the last few years due to its significant impact on system success and, left unchecked, it can cause expensive repercussions. It is therefore important to understand the underlying factors of architectural TD. With this as background, there is a need for a descriptive model to illustrate and explain different architectural TD issues. The aim of this study is to synthesize and compile research efforts with the goal of creating new knowledge with a specific interest in the architectural TD field. The contribution of this paper is the presentation of a novel descriptive model, providing a comprehensive interpretation of the architectural TD phenomenon. This model categorizes the main characteristics of architectural TD and reveals their relations. The results show that, by using this model, different stakeholders could increase the system's success rate, and lower the rate of negative consequences, by raising awareness about architectural TD."/>
-    <hyperlink ref="F3" r:id="rId5" location="" tooltip="" display="Journal of Systems and Software&#10;"/>
-    <hyperlink ref="B4" r:id="rId6" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7158498"/>
-    <hyperlink ref="F4" r:id="rId7" location="" tooltip="" display="2015 12th Working IEEE/IFIP Conference on Software Architecture"/>
-    <hyperlink ref="B5" r:id="rId8" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8595095?casa_token=frrlNCRZeyYAAAAA:bMCuvOEgSQxv7yyV_g9tWDc25QMn75gbMDx7vgmNV4zJcGyRQ4EGVqN1-3uOC33Ir4a2THTMAjk"/>
-    <hyperlink ref="F5" r:id="rId9" location="" tooltip="" display="2018 IEEE/ACM International Conference on Technical Debt (TechDebt)"/>
-    <hyperlink ref="B6" r:id="rId10" location="" tooltip="" display="https://onlinelibrary.wiley.com/doi/full/10.1002/smr.1877?casa_token=u1iterhvisEAAAAA%3AHMHqo8mniG9F7qZe-YYMoEPXwn6Zw0MSu7CnLloxoNNI2pkUWZlU_il7orMF2S6f6YSQJX7ODFcZSEKV"/>
-    <hyperlink ref="B7" r:id="rId11" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584915001287?casa_token=d7FY9GBzKp0AAAAA:BHpXI25mQC3q_lrj_XM5T7_tpFwjjVahOnuqFpodZWFOBT_NeRVTvGxVCSO__lV6fN_3re0Encg"/>
-    <hyperlink ref="D7" r:id="rId12" location="" tooltip="" display="Context&#10;A known problem in large software companies is to balance the prioritization of short-term with long-term feature delivery speed. Specifically, Architecture Technical Debt is regarded as sub-optimal architectural solutions taken to deliver fast that might hinder future feature development, which, in turn, would hinder agility.&#10;Objective&#10;This paper aims at improving software management by shedding light on the current factors responsible for the accumulation of Architectural Technical Debt and to understand how it evolves over time.&#10;Method&#10;We conducted an exploratory multiple-case embedded case study in 7 sites at 5 large companies. We evaluated the results with additional cross-company interviews and an in-depth, company-specific case study in which we initially evaluate factors and models.&#10;Results&#10;We compiled a taxonomy of the factors and their influence in the accumulation of Architectural Technical Debt, and we provide two qualitative models of how the debt is accumulated and refactored over time in the studied companies. We also list a set of exploratory propositions on possible refactoring strategies that can be useful as insights for practitioners and as hypotheses for further research.&#10;Conclusion&#10;Several factors cause constant and unavoidable accumulation of Architecture Technical Debt, which leads to development crises. Refactorings are often overlooked in prioritization and they are often triggered by development crises, in a reactive fashion. Some of the factors are manageable, while others are external to the companies. ATD needs to be made visible, in order to postpone the crises according to the strategic goals of the companies. There is a need for practices and automated tools to proactively manage ATD."/>
-    <hyperlink ref="F7" r:id="rId13" location="" tooltip="" display="Information and Software Technology&#10;"/>
-    <hyperlink ref="B8" r:id="rId14" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2602576.2602581?casa_token=3c7z1hpCJ2oAAAAA:dAQ5XeHjJEz6pbCtU-F14v47YlAY_HH7jaeCSa-Iw2WIwNIj4dJi2AH41CdpUcC3_enGiMF83OVuUA"/>
-    <hyperlink ref="F8" r:id="rId15" location="" tooltip="" display="QoSA '14: Proceedings of the 10th international ACM Sigsoft conference on Quality of software architectures"/>
-    <hyperlink ref="B9" r:id="rId16" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7158505"/>
-    <hyperlink ref="B10" r:id="rId17" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121221000224"/>
-    <hyperlink ref="D10" r:id="rId18" location="" tooltip="" display="Architectural technical debt in software-intensive systems is a metaphor used to describe the “big” design decisions (e.g., choices regarding structure, frameworks, technologies, languages, etc.) that, while being suitable or even optimal when made, significantly hinder progress in the future. While other types of debt, such as code-level technical debt, can be readily detected by static analyzers, and often be refactored with minimal or only incremental efforts, architectural debt is hard to be identified, of wide-ranging remediation cost, daunting, and often avoided.&#10;In this study, we aim at developing a better understanding of how software development organizations conceptualize architectural debt, and how they deal with it. In order to do so, in this investigation we apply a mixed empirical method, constituted by a grounded theory study followed by focus groups. With the grounded theory method we construct a theory on architectural technical debt by eliciting qualitative data from software architects and senior technical staff from a wide range of heterogeneous software development organizations. We applied the focus group method to evaluate the emerging theory and refine it according to the new data collected.&#10;The result of the study, i.e., a theory emerging from the gathered data, constitutes an encompassing conceptual model of architectural technical debt, identifying and relating concepts such as its symptoms, causes, consequences, management strategies, and communication problems. From the conducted focus groups, we assessed that the theory adheres to the four evaluation criteria of classic grounded theory, i.e., the theory fits its underlying data, is able to work, has relevance, and is modifiable as new data appears.&#10;By grounding the findings in empirical evidence, the theory provides researchers and practitioners with novel knowledge on the crucial factors of architectural technical debt experienced in industrial contexts.&#10;"/>
-    <hyperlink ref="B12" r:id="rId19" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S095058491630355X?casa_token=S2Eoc3WT6GUAAAAA:_0K7XROOoBNvPU1f06D5jFKqBhvj2bXP9Oh8-_dlXOaIvQLIC0z3QMTDQl3xzpr0PORDjSseBO4"/>
-    <hyperlink ref="D12" r:id="rId20" location="" tooltip="" display="Context&#10;Research and industry's attention has been focusing on developing systems that enable fast time to market in the short term, but would assure a sustainable delivery of business value and maintenance operations in the long run. A related phenomenon has been identified in Architectural Technical Debt: if the system architecture is sub-optimal for long-term business goals, it might need to be refactored. A key property of the system assuring long-term goals is its modularity, or else the degree to which components are decoupled: such property allows the product to be evolved without costly changes pervading the whole system. However, understanding the business benefits of refactoring to achieve modularity is not trivial, especially for large refactorings involving substantial architectural changes.&#10;Objective&#10;The aim of this study was to develop a technique to identify Architectural Technical Debt in the form of a non-modularized component and to quantify the convenience of its repayment.&#10;Method&#10;We have conducted a single, embedded case study in a large company, comparing a component before and after it was refactored to achieve modularity. We have developed a holistic framework for the semi-automated identification and estimation of Architectural Technical Debt in the form of non-modularized components. We then evaluate the technique reporting a comparative study of the difference in maintenance and development costs in two coexisting systems, one including the refactored component and one including the non-refactored one.&#10;Results&#10;The main contributions are a measurement system for the identification of the Architectural Technical Debt according to the stakeholders’ goals, a mathematical relationship for calculating and quantifying its interest in terms of extra-effort spent in additional development and maintenance, and an overall decision framework to assess the benefit of refactoring. We also report context-specific results that show the estimated benefits of refactoring the specific case of Architectural Technical Debt.&#10;Conclusion&#10;We found that it is possible to identify this kind of Architectural Technical Debt and to quantify its repayment convenience. Thanks to the developed framework, it was possible to estimate that the Architectural Technical Debt present in the component was causing substantial continuous extra-effort, and that the modularization would be repaid in several months of development and maintenance.&#10;"/>
-    <hyperlink ref="F12" r:id="rId21" location="" tooltip="" display="Information and Software Technology&#10;"/>
-    <hyperlink ref="B13" r:id="rId22" location="" tooltip="" display="https://www.scitepress.org/Papers/2020/95778/95778.pdf"/>
-    <hyperlink ref="B14" r:id="rId23" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/B9780128023013000053"/>
-    <hyperlink ref="D14" r:id="rId24" location="" tooltip="" display="Technical debt (TD) has attracted an increasing interest from researchers and practitioners in the software engineering domain. Currently, most approaches to managing TD focus on dealing with TD at source code level, while few methods deal with TD at architecture level. If architectural technical debt (ATD) is not effectively managed in the architecting process, the knowledge about ATD is not made available to involved stakeholders and the impact of ATD is not considered during architecture decision-making. Thus, the system’s maintainability and evolvability can be intentionally or unintentionally compromised. As a result, architectures are costly to maintain and new features are difficult to introduce. To facilitate the management of ATD, it needs to be documented so that it becomes explicit to stakeholders. To this end, we propose a set of architecture viewpoints related to ATD (ATD viewpoints in short). Each viewpoint frames a number of concerns related to ATD. These ATD viewpoints together help to get a comprehensive understanding of ATD in a software system, thereby providing support for architecture decision-making. To evaluate the effectiveness of the ATD viewpoints in documenting ATD, we conducted a case study in a large telecommunications company. The results of this case study show that the documented ATD views can effectively facilitate the documentation of ATD. Specifically, the ATD viewpoints are relatively easy to understand, it takes an acceptable amount of effort to document ATD using the ATD viewpoints, and the documented ATD views are useful for stakeholders to understand the ATD in the software project."/>
-    <hyperlink ref="B15" r:id="rId25" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8543428"/>
-    <hyperlink ref="B16" r:id="rId26" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8432173"/>
-    <hyperlink ref="F16" r:id="rId27" location="" tooltip="" display="2018 IEEE International Conference on Software Architecture Companion (ICSA-C)"/>
-    <hyperlink ref="B17" r:id="rId28" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121221000650"/>
-    <hyperlink ref="D17" r:id="rId29" location="" tooltip="" display="Background:&#10;Using a microservices architecture is a popular strategy for software organizations to deliver value to their customers fast and continuously. However, scientific knowledge on how to manage architectural debt in microservices is scarce.&#10;Objectives:&#10;In the context of microservices applications, this paper aims to identify architectural technical debts (ATDs), their costs, and their most common solutions.&#10;Method:&#10;We conducted an exploratory multiple case study by conducting 25 interviews with practitioners working with microservices in seven large companies.&#10;Results:&#10;We found 16 ATD issues, their negative impact (interest), and common solutions to repay each debt together with the related costs (principal). Two examples of critical ATD issues found were the use of shared databases that, if not properly planned, leads to potential breaks on services every time the database schema changes and bad API designs, which leads to coupling among teams. We identified ATDs occurring in different domains and stages of development and created a map of the relationships among those debts.&#10;Conclusion:&#10;The findings may guide organizations in developing microservices systems that better manage and avoid architectural debts"/>
-    <hyperlink ref="F17" r:id="rId30" location="" tooltip="" display="Journal of Systems and Software&#10;"/>
-    <hyperlink ref="B18" r:id="rId31" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8051360?casa_token=an75znP_OP0AAAAA:Huxi_g0upkMrgDUI52mmhZtTwlH_CIVgzzEAC_R19zwMTr-oC6i26Cw4PhDyDxho4UjlGw9Vvo8"/>
-    <hyperlink ref="B19" r:id="rId32" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9426715?casa_token=LCX59lmMZJUAAAAA:GWpprlXcNtlYbqzbEc-KLEJ-BaWWgFfjbhvN65LRZkQwKMTeVS3h5moEKFZ-KnAzOAT0MqPiUzA"/>
-    <hyperlink ref="F19" r:id="rId33" location="" tooltip="" display="2021 IEEE 18th International Conference on Software Architecture (ICSA)"/>
-    <hyperlink ref="B20" r:id="rId34" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8786037?casa_token=fqIL8o_b_0wAAAAA:OZEK4SwislCdwaEtyB9_vSv6rVtuI_0_y4xtJyV2h0y1p2u0qiL6HyRzqBCXw_5Ae1HUKLJzLJc"/>
-    <hyperlink ref="F20" r:id="rId35" location="" tooltip="" display=" 2019 IEEE/ACM International Conference on Technical Debt (TechDebt)"/>
-    <hyperlink ref="B21" r:id="rId36" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7379167?casa_token=Is7_uUN68_wAAAAA:cHVb1og-yWxQ0QK3cLx_YO-OoW7oYmcKk4MpWmEsHzWoXPr0UQ4gItloWN08gTD0AIhHByw_rj4"/>
-    <hyperlink ref="F21" r:id="rId37" location="" tooltip="" display="2015 IEEE International Conference on Systems, Man, and Cybernetics"/>
-    <hyperlink ref="B22" r:id="rId38" location="" tooltip="" display="https://apps.dtic.mil/sti/pdfs/ADA611121.pdf"/>
-    <hyperlink ref="B23" r:id="rId39" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6928795?casa_token=8ne9fh9v7PcAAAAA:9HLT4AuLc5JpXbLKK0bPOIGfk5yAPsWAinUf4fypGMU2796ndQsbeXfueb5tj0IQbfKVdqjGrVA"/>
-    <hyperlink ref="B24" r:id="rId40" location="" tooltip="" display="https://onlinelibrary.wiley.com/doi/abs/10.1002/9781119513957.ch4"/>
-    <hyperlink ref="B25" r:id="rId41" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-59155-7_1"/>
-    <hyperlink ref="B26" r:id="rId42" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7302484?casa_token=73GiEY-PBvsAAAAA:t1CeDv6MCi8Id7_TdtNCYQJWPAsM_LcMDU1UpL6a9_plXSTknS6sRWAbL1EmnlCaByc5IvsD6Hc"/>
-    <hyperlink ref="F26" r:id="rId43" location="" tooltip="" display="2015 41st Euromicro Conference on Software Engineering and Advanced Applications"/>
-    <hyperlink ref="B27" r:id="rId44" location="" tooltip="" display="https://www.researchgate.net/profile/Saulo-Toledo-2/publication/331904375_Architectural_Technical_Debt_in_Microservices_A_Case_Study_in_a_Large_Company/links/5d287d65458515c11c27cb5a/Architectural-Technical-Debt-in-Microservices-A-Case-Study-in-a-Large-Company.pdf"/>
-    <hyperlink ref="B28" r:id="rId45" location="" tooltip="" display="https://www.worldscientific.com/doi/abs/10.1142/S021819402150008X?casa_token=czLkK-r1du0AAAAA%3AHafcR9PiaHvu0saUdPf5GwGaRMn7gSqW7Rgkw6uAAc32ugV38GFyJRQEFwdwhs0M_YYH7zNhbWDJHQ&amp;"/>
-    <hyperlink ref="F28" r:id="rId46" location="" tooltip="" display="International Journal of Software Engineering and Knowledge Engineering"/>
-    <hyperlink ref="B29" r:id="rId47" location="" tooltip="" display="https://iopscience.iop.org/article/10.1088/1742-6596/1587/1/012020/meta"/>
-    <hyperlink ref="B30" r:id="rId48" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7520104?casa_token=Rtqpgg3f7zEAAAAA:ElwxEkx1ek7lyPn7r-PuIAyfawNlBVTz4QTYb1Tu7fJB8_FElbHQ7eTmqYbTyKUG5fiHKOB3N6s"/>
-    <hyperlink ref="F30" r:id="rId49" location="" tooltip="" display=" Euro American Conference on Telematics and Information Systems (EATIS)"/>
-    <hyperlink ref="B31" r:id="rId50" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7332622?casa_token=Haikn-61XoAAAAAA:5Xiilm_88gAxGk4XZ4LCyfcmLS4-wGtzE6-IZf0ob9uS6dfzMuXa9DI4x3VbZmWTKrAItoKi2XM"/>
-    <hyperlink ref="F31" r:id="rId51" location="" tooltip="" display="2015 IEEE 7th International Workshop on Managing Technical Debt (MTD)"/>
-    <hyperlink ref="B32" r:id="rId52" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8498239?casa_token=AWAhNuY1-AMAAAAA:5AktS5UxXq7hTGU3OYAogDzSRElSPEla2e90Ks_FqT-VxX-bcxwDlxv0WIUGpkYBRK-TnvaF64A"/>
-    <hyperlink ref="F32" r:id="rId53" location="" tooltip="" display="2018 44th Euromicro Conference on Software Engineering and Advanced Applications (SEAA)"/>
-    <hyperlink ref="B33" r:id="rId54" location="" tooltip="" display="https://odr.chalmers.se/handle/20.500.12380/300046"/>
-    <hyperlink ref="B34" r:id="rId55" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/B978012410464800009X"/>
-    <hyperlink ref="D34" r:id="rId56" location="" tooltip="" display="Architectural technical debt (ATD) may be incurred when making architecture decisions. In most cases, ATD is not effectively managed in the architecting process: It is not made explicit, and architecture decision making does not consider the ATD incurred by the different design options. This chapter proposes a conceptual model of ATD and an architectural technical debt management process applying this ATD conceptual model in order to facilitate decision making in a value-oriented perspective of architecting. We also demonstrate how ATD management can be employed in architectural synthesis and evaluation in a case study. The contribution of this work provides a controllable and predictable balance between the value and cost of architecture design in the long term."/>
-    <hyperlink ref="F34" r:id="rId57" location="" tooltip="" display="Economics-Driven Software Architecture&#10;"/>
-    <hyperlink ref="B35" r:id="rId58" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8051360?casa_token=A6u371uiyKYAAAAA:yY2vamsl_ypXaxykLG1XP-CwdI57BHHD5nscSLPCQcvppa5QPE9xQc9uc6ghx9HSLkB1wV4uMoE"/>
-    <hyperlink ref="F35" r:id="rId59" location="" tooltip="" display="2017 43rd Euromicro Conference on Software Engineering and Advanced Applications (SEAA)"/>
-    <hyperlink ref="B36" r:id="rId60" location="" tooltip="" display="https://research.vu.nl/en/publications/identifying-architectural-technical-debt-moving-forward"/>
-    <hyperlink ref="F36" r:id="rId61" location="" tooltip="" display="15th IEEE International Conference on Software Architecture (ICSA 2018). - Seattle. USA."/>
-    <hyperlink ref="B37" r:id="rId62" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7958479?casa_token=dvDgL3QwUq4AAAAA:Jr9XkEGeC5bGap2OJH00VsDK8S6bUBTk7dPQZPxk0Gf1VhMdPc8xNZTRpxWST3Dc0YqCoXwh6dE"/>
-    <hyperlink ref="F37" r:id="rId63" location="" tooltip="" display="2017 IEEE International Conference on Software Architecture Workshops (ICSAW)"/>
-    <hyperlink ref="B38" r:id="rId64" location="" tooltip="" display="https://www.proquest.com/openview/706700b742cd671cd3192a91930bc725/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y"/>
-    <hyperlink ref="B39" r:id="rId65" location="" tooltip="" display="http://laser.inf.ethz.ch/2014/students/martini.pdf"/>
-    <hyperlink ref="B40" r:id="rId66" location="" tooltip="" display="https://odr.chalmers.se/handle/20.500.12380/253719"/>
-    <hyperlink ref="B41" r:id="rId67" location="" tooltip="" display="http://repositorio.ulasalle.edu.pe/handle/20.500.12953/62"/>
-    <hyperlink ref="B42" r:id="rId68" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-00761-4_21"/>
-    <hyperlink ref="F42" r:id="rId69" location="" tooltip="" display="European Conference on Software Architecture"/>
-    <hyperlink ref="B43" r:id="rId70" location="" tooltip="" display="https://odr.chalmers.se/handle/20.500.12380/219830"/>
-    <hyperlink ref="B45" r:id="rId71" location="" tooltip="" display="https://gupea.ub.gu.se/handle/2077/42003"/>
-    <hyperlink ref="B46" r:id="rId72" location="" tooltip="" display="https://yadda.icm.edu.pl/yadda/element/bwmeta1.element.baztech-bed61889-8adb-4503-943d-dec871dbe4ac"/>
-    <hyperlink ref="F46" r:id="rId73" location="" tooltip="" display=" e-Informatica Software Engineering Journal"/>
-    <hyperlink ref="B47" r:id="rId74" location="" tooltip="" display="https://researchrepository.wvu.edu/etd/7711/"/>
-    <hyperlink ref="B48" r:id="rId75" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8785983?casa_token=JqZSSwow-DcAAAAA:_sZU-rPAEPXj_lbOiOHCzmrOlkBxfjBaZW1_WhHjDQf0J5FwgPhaN5XsBVyiXGSdul9xEYTqsrc"/>
-    <hyperlink ref="F48" r:id="rId76" location="" tooltip="" display=" 2019 IEEE/ACM International Conference on Technical Debt (TechDebt)"/>
-    <hyperlink ref="B49" r:id="rId77" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8498241?casa_token=BDflO1y40hwAAAAA:pF3iy2mbcMURcxnZ8OBw3T-Pto88zhqvgBrItSHKAUXr1E8hgnPzVjvnltbG4Bl_Cr9k_7-Uka8"/>
-    <hyperlink ref="B50" r:id="rId78" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8785058?casa_token=tHEtVjlGgLQAAAAA:aH8Qrvmm99-mMOb4ilv9EnB9pggOJ9Hz2fyc-6tavhB4xeR47QwBXysKCgHgOm8saIkMf__ZhBw"/>
-    <hyperlink ref="B51" r:id="rId79" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8786035?casa_token=RLvNlnP6KRcAAAAA:Rz-Jt_VahVPF_IPcE5N3KfsZyAWbC30MrLSBDZix_jGHMVVcCtN1aiFjqsRVD8-50Mt0QcBITX0"/>
-    <hyperlink ref="B52" r:id="rId80" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7174845?casa_token=-IDUA2IcXNsAAAAA:IhaWH-4BNHWsFr9onymliR8vR3DpWZbPF_Duor-1mP4fSSx_id16jdXg77p98yA6nZLxuosTsmU"/>
-    <hyperlink ref="F52" r:id="rId81" location="" tooltip="" display=" 2015 IEEE/ACM 2nd International Workshop on Software Architecture and Metrics"/>
-    <hyperlink ref="B53" r:id="rId82" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6319262?casa_token=he4B2QD8rEgAAAAA:hjv8bjHrgxHPllPj6cocrBTqmABd_Ss1WDU3EP4K0MJiCbvs_OjVlIbcaC30SKyASOQ6JMDV5BQ"/>
-    <hyperlink ref="B54" r:id="rId83" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9438359?casa_token=DVPA0bn4nCwAAAAA:p-eXnIESlhy8oeBMQ-RX9u1td7sCA_HzrTU3H7q3UGL3U0QCfR5NIcGszz0L1VFD__MzqQ4JkVA"/>
-    <hyperlink ref="F54" r:id="rId84" location="" tooltip="" display="2021 IEEE Aerospace Conference (50100)"/>
-    <hyperlink ref="B55" r:id="rId85" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121216300760?casa_token=6qbSULM6HIwAAAAA:bbVHLxaR-8GA02fa2njL5810UafN77Ch2D3FBqg0fyvqShmPRr7mGvohg2yFrZsKfQybVXqbDrs"/>
-    <hyperlink ref="B56" r:id="rId86" location="" tooltip="" display="https://apps.dtic.mil/sti/citations/AD1087753"/>
-    <hyperlink ref="B57" r:id="rId87" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2851613.2851963?casa_token=lkCBOOf5N7EAAAAA:v2lV7u0Zujw1KICOEtEvpZphlNZM_6j3AAjMIHfeqJ7p_TS_08BigZjufzoIgLXcztQ9roBPRgAbQA"/>
-    <hyperlink ref="B58" r:id="rId88" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9247070"/>
-    <hyperlink ref="B59" r:id="rId89" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7202962?casa_token=3gxbSUBzw7wAAAAA:bq2Q3yufYkE99EuzSveRKY2U1lzMGQZVxtvd-0WCHZtkGq0TspgeQHJwlfcgu-xZqYsm2IaylOk"/>
-    <hyperlink ref="F59" r:id="rId90" location="" tooltip="" display="2015 IEEE/ACM 37th IEEE International Conference on Software Engineering"/>
-    <hyperlink ref="B60" r:id="rId91" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584921001282?casa_token=Pzcjyf9M96UAAAAA:CLqQROpN51gAlO7FH-t6EZrC8ufwyd_ekXrvrEXiEF5UrCZMDYBQDfYF4SHgsDRPsmxQ5_6zaMc"/>
-    <hyperlink ref="D60" r:id="rId92" location="" tooltip="" display="Context:&#10;During software development, some architectural design decisions incur technical debt, either deliberately or inadvertently. These have serious impact on the quality of a software system, and can cost significant time and effort to be changed. While current research efforts have explored general concepts of architectural design decisions and technical debt separately, debt-incurring architectural design decisions have not been specifically explored in practice.&#10;Objective:&#10;In this case study, we explore debt-incurring architectural design decisions (DADDs) in practice. Specifically, we explore the main types of DADDs, why and how they are incurred in a software system, and how practitioners deal with these types of design decisions.&#10;Method:&#10;We performed interviews and a focus group with practitioners working in embedded and enterprise software companies, discussing their concrete experience with such architectural design decisions.&#10;Results:&#10;We provide the following contributions: 1) A categorization for the types of DADDs, which extend a current ontology on architectural design decisions. 2) A process on how deliberate DADDs are made in practice. 3) A conceptual model which shows the relationships between the causes and triggers of inadvertent DADDs. 4) The main factors that influence the way of dealing with DADDs.&#10;Conclusion:&#10;The results can support the development of new approaches and tools for Architecture Technical Debt management from the perspective of Design Decisions. Moreover, they support future research to capture architecture knowledge related to DADDs.&#10;"/>
-    <hyperlink ref="F60" r:id="rId93" location="" tooltip="" display="Journal of Information and Software Technology&#10;"/>
-    <hyperlink ref="B61" r:id="rId94" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8595101?casa_token=4-5YckXp3BoAAAAA:KojnewYahDws7fXREP6VE56VZN1DP8xz6_cUSbgKXlOb0mDZE1x11eUtG-OGQ14tlaMk2EyfB20"/>
-    <hyperlink ref="F61" r:id="rId95" location="" tooltip="" display="2018 IEEE/ACM International Conference on Technical Debt (TechDebt)"/>
-    <hyperlink ref="F62" r:id="rId96" location="" tooltip="" display="Journal of Physics: Conference Series"/>
-    <hyperlink ref="B63" r:id="rId97" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7332624?casa_token=nnmOh5AR2tQAAAAA:9w1_AQ_nPV3SLwEnUFBIpTf46_yAbrouFBI4fKFJeuUtV0Nw8nBHOonojlaRYveqc3e-tK5PqxY"/>
-    <hyperlink ref="F63" r:id="rId98" location="" tooltip="" display=" 2015 IEEE 7th International Workshop on Managing Technical Debt (MTD)"/>
-    <hyperlink ref="B64" r:id="rId99" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6279447?casa_token=uSt_BSEYUZcAAAAA:KlLMTNN4APkoXyLtf2ezRvtN6mIV1DXV4np7OpHiosD-6hH957cTalDpmY43kKjFnL-WnN8FZ0s"/>
-    <hyperlink ref="F64" r:id="rId100" location="" tooltip="" display="IEEE Software"/>
-    <hyperlink ref="B65" r:id="rId101" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2786805.2786848?casa_token=T2L6OC8WXfYAAAAA:W8b1O20AHTYyZk0Ic5wqidiUgzQ3oEoZwbOt-dTExWUZ6VPp5dql2jTJwt8wG4QtHCF-rOHARMJ9vg"/>
-    <hyperlink ref="B66" r:id="rId102" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8786015?casa_token=JCfqsmLOPgYAAAAA:ohDOR2FXoehJvzshDAJpD5AdacZA-plg9_Jzc4bs2EdmgT1-MRtg-yVDrnDcsjgh_PINVgfPhco"/>
-    <hyperlink ref="F66" r:id="rId103" location="" tooltip="" display=" 2019 IEEE/ACM International Conference on Technical Debt (TechDebt)"/>
-    <hyperlink ref="B67" r:id="rId104" location="" tooltip="" display="https://drops.dagstuhl.de/opus/volltexte/2016/6693/pdf/dagrep_v006_i004_p110_s16162.pdf"/>
-    <hyperlink ref="B68" r:id="rId105" location="" tooltip="" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3606172"/>
-    <hyperlink ref="B69" r:id="rId106" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9222009?casa_token=oM4QIvCKM6EAAAAA:6lcGmhl5_wSClXFIkwBBf6OpGIdh6zITy63A_7OVGsk7rVdyYLxughreOil5opQUUjeDNel5P7A"/>
-    <hyperlink ref="F69" r:id="rId107" location="" tooltip="" display=" IEEE Software"/>
-    <hyperlink ref="B70" r:id="rId108" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9200792?casa_token=X23-G3FXgmsAAAAA:Cj4up73fAnZABy2y4rEbfj5-m59H7n9YPtMIDEmEXK-itrsBZKHj2B5se_MYLTrkQqsWFffVhwY"/>
-    <hyperlink ref="F70" r:id="rId109" location="" tooltip="" display="IEEE Software"/>
-    <hyperlink ref="B71" r:id="rId110" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3120459.3120466?casa_token=yqn3dYQ_rMUAAAAA:n_R1AsiziXn61JgE4xtyQd2k0e2w5zsKias1VjIOCtpW0K7LwFB9XUsBn5C2Le4y9cFbSVnNivxEvA"/>
-    <hyperlink ref="F71" r:id="rId111" location="" tooltip="" display="proceedings of the XP2017 Scientific Workshops"/>
-    <hyperlink ref="B72" r:id="rId112" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8094405"/>
-    <hyperlink ref="F72" r:id="rId113" location="" tooltip="" display="2017 IEEE International Conference on Software Maintenance and Evolution (ICSME)"/>
-    <hyperlink ref="B73" r:id="rId114" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3120459.3120467?casa_token=rUWUSvD6_g4AAAAA:mBSLTNe3Btdi22pN9gUFZjv0mcHVNOnmx_Nr2MXASSE8320P5APvAE7lbMgAZ4vYUIB7UuqHWP_woA"/>
-    <hyperlink ref="F73" r:id="rId115" location="" tooltip="" display="Proceedings of the XP2017 Scientific Workshops"/>
-    <hyperlink ref="B74" r:id="rId116" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584915001743?casa_token=wYn7e4RsQjUAAAAA:sFM1mb848tBPmI1yWw9OtVeEh8nca2hSZFTwPLEJQh7ABj4XTc6uC0MmLnge7w7Nm6z3-J21wUw"/>
-    <hyperlink ref="F74" r:id="rId117" location="" tooltip="" display="Information and Software Technology&#10;"/>
-    <hyperlink ref="B75" r:id="rId118" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S016412122030220X?casa_token=GkNKU7FHkigAAAAA:T2-jiGK2-2GAImKEvMd_wDzEMYO44Z-NdVqet0P0wyj_zyEzDVVSGvuubDA4qqTW_cHKNpS4UYo"/>
-    <hyperlink ref="F75" r:id="rId119" location="" tooltip="" display="Journal of Systems and Software"/>
-    <hyperlink ref="B76" r:id="rId120" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7776447?casa_token=bORKKGfn7HcAAAAA:RDvRwlTlINm7wZdfP2nUO5-gW-inXpQ3O2-XvgMArev_ZGD482gwfsdLgg7zmkG24gG8gewd_L0"/>
-    <hyperlink ref="B77" r:id="rId121" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3297280.3297448?casa_token=qH4VtRbrbGEAAAAA:q6W413mWE1_yx5ICvyX9zwzYRFVi3Ysjod2ek32stEAeSRE1te05wiutHuEhSaQu38cfi7yrTq0bjw"/>
-    <hyperlink ref="B78" r:id="rId122" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7890584?casa_token=9VRlpfJUie8AAAAA:txEwl6Md6ItrznimGRKWNup88g3_3y6DmqAjeeXorsCHysZpOs8ItLZ5TlD5mLsI6febfYnEcuM"/>
-    <hyperlink ref="F78" r:id="rId123" location="" tooltip="" display="2016 23rd Asia-Pacific Software Engineering Conference (APSEC)"/>
-    <hyperlink ref="B79" r:id="rId124" location="" tooltip="" display="https://link.springer.com/article/10.1007/s10664-014-9351-7"/>
-    <hyperlink ref="F79" r:id="rId125" location="" tooltip="" display="Empirical Software Engineering "/>
-    <hyperlink ref="B80" r:id="rId126" location="" tooltip="" display="https://www.researchgate.net/profile/Llahm-Omar-Ben-Dalla-2/publication/344892539_Systematic_Mapping_on_a_metaphorical_issue_of_Technical_Debt_framework/links/5f9754f892851c14bceaae4d/Systematic-Mapping-on-a-metaphorical-issue-of-Technical-Debt-framework.pdf"/>
-    <hyperlink ref="B81" r:id="rId127" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-58793-2_6"/>
-    <hyperlink ref="F81" r:id="rId128" location="" tooltip="" display="International Conference on the Quality of Information and Communications Technology"/>
-    <hyperlink ref="B82" r:id="rId129" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3387906.3388632?casa_token=BSUK5Y9cgqQAAAAA:l4SLEJZVEMhIUzKahilgYIdre6K4SptYxwlVxTQu60s8XryDCcvNhlobZfTHi1Yl4nB4B89y0TZzsw"/>
-    <hyperlink ref="F82" r:id="rId130" location="" tooltip="" display="International Conference on Technical Debt"/>
-    <hyperlink ref="B83" r:id="rId131" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-319-49094-6_24"/>
-    <hyperlink ref="F83" r:id="rId132" location="" tooltip="" display="International Conference on Product-Focused Software Process Improvement"/>
-    <hyperlink ref="B84" r:id="rId133" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8786030?casa_token=RpJMK8XXh9kAAAAA:Evdh6HFaJgypoxUE1CC7O7XBUGgGxBO4Tjfn-fhIIEyp17WWkDmyLQVnUPfwGiRy60jzk8egaD4"/>
-    <hyperlink ref="F84" r:id="rId134" location="" tooltip="" display=" 2019 IEEE/ACM International Conference on Technical Debt (TechDebt)"/>
-    <hyperlink ref="B85" r:id="rId135" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3339252.3340338?casa_token=pY4nP8QrzlMAAAAA:MDg0bLGHsQrUUtG9alvUNvVA6GUm6mGfwF3WWDfho9X4pZ60L4JiKcDQUsWKS4nSt3bfGq3grJBd7Q"/>
-    <hyperlink ref="B86" r:id="rId136" location="" tooltip="" display="https://arxiv.org/abs/1904.12538"/>
-    <hyperlink ref="B87" r:id="rId137" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121214002854?casa_token=hYb6MmBvIuoAAAAA:7OVz8krowp-ddoSb8YBS2VC7pQ3WRR9VlwxAeuksB9JNJ-CZnmNWFBAofpU8296fSklOkZuWoq4"/>
-    <hyperlink ref="F87" r:id="rId138" location="" tooltip="" display="Journal of Systems and Software&#10;"/>
-    <hyperlink ref="B88" r:id="rId139" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584916302890?casa_token=JIV6-NxQIJQAAAAA:LscWnDMUeRJXRpwdfNCB9rTs-vNEgJSpo9ladBzVSzz5sjIVFx43Suqvhu90TOuxaVwa5EvVGMI"/>
-    <hyperlink ref="B89" r:id="rId140" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584918300946?casa_token=F68ZS6dWZvYAAAAA:86Acrx45UlGmCoyfUCzR6_Q7ulyaK-QPswuwB7vpmvjWQjjqWdUnvbijNss2v5eHYcxGUN8fIzM"/>
-    <hyperlink ref="B90" r:id="rId141" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8530048?casa_token=-5-H44WXCCcAAAAA:6uiwcXy2uMzVFxRW_beTcF_U4tJVE9VKTC3d6exzThD0FePD4iFtFJ2AFQAId9c4X8ukF1W1D0M"/>
-    <hyperlink ref="B91" r:id="rId142" location="" tooltip="" display="http://ceur-ws.org/Vol-2017/paper10.pdf"/>
-    <hyperlink ref="B92" r:id="rId143" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8785063?casa_token=18J_0mcNersAAAAA:MKmiOpeGqw1ubi2MygkVrxhJXMgnZ6b1e_WhsFxlc01l8OpErp9iqso5lXvsqjVazknOcYgZcsc"/>
-    <hyperlink ref="B93" r:id="rId144" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0167642318301035"/>
-    <hyperlink ref="F93" r:id="rId145" location="" tooltip="" display="Science of Computer Programming&#10;"/>
-    <hyperlink ref="B94" r:id="rId146" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7888414?casa_token=_dqKhmDFdGsAAAAA:0LGKKW2vfpwLL1n6s0C-XDc6D95Eje399SRssF9Y7OIJivfXrjdq_aktm58PYkTs_xxBn7y3NmU"/>
-    <hyperlink ref="B95" r:id="rId147" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2508075.2516596?casa_token=PkTjswkEhw4AAAAA:_pIkUC1jy_BULxAF8QghpsNEKiuwEm23uOlUptqVHTvbkzVA-TxObyf1risdqiNGLp4ayR7BEgU-hg"/>
-    <hyperlink ref="B96" r:id="rId148" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6606634?casa_token=EOsio8FLPToAAAAA:8S7uZGXEAt_R7pqRyF1cyXxW9hRrXeR4yyS7Aopmr1-6G84OhYa-4rqGPqUp5LSw9_VKFSAiPnU"/>
-    <hyperlink ref="F96" r:id="rId149" location="" tooltip="" display=" 2013 35th International Conference on Software Engineering (ICSE)"/>
-    <hyperlink ref="B97" r:id="rId150" location="" tooltip="" display="https://arxiv.org/abs/2104.08075"/>
-    <hyperlink ref="B98" r:id="rId151" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3387906.3388626?casa_token=iULn3kj2FNYAAAAA:dNNtjoER23Wk6gzG2S0V7GxwB7rMpS0ShRnQ1FYxaWOTrZetlUMtsEaD2IO2roVnHo3J-DFVkgAywA"/>
-    <hyperlink ref="B99" r:id="rId152" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584917305098"/>
-    <hyperlink ref="F99" r:id="rId153" location="" tooltip="" display="Information and Software Technology&#10;"/>
-    <hyperlink ref="B100" r:id="rId154" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9426056?casa_token=c-roJlPfU9sAAAAA:Ur6NxGArQ_Q1HkfxX9uGpsqwhBf5aWLn7G9Wt4zbQDPhZsYRPrKoRXUunZoQojcBNGG-jX_OKGw"/>
-    <hyperlink ref="B101" r:id="rId155" location="" tooltip="" display="https://www.mdpi.com/1999-4893/13/7/168"/>
-    <hyperlink ref="B102" r:id="rId156" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121220302119"/>
-    <hyperlink ref="F102" r:id="rId157" location="" tooltip="" display="Journal of Systems and Software&#10;"/>
-    <hyperlink ref="B103" r:id="rId158" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121216302138?casa_token=HdbSaVjaomsAAAAA:ENm_YP4cRzlKHqSyU_kkqPJnz3RoyMs3fIXKaoZREEBp_bDoG4sVnvBm77Anc-cOtctrlRtg0Xc"/>
-    <hyperlink ref="B104" r:id="rId159" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9226274?casa_token=2M5iWzpFLUQAAAAA:PAdr8yej6rMxWOxK4ch2CZ5ndw-dDOQUJWUF-v34sutF0PplpAiYED1hcHyRGOiB7DdiT7q1FrU"/>
-    <hyperlink ref="F104" r:id="rId160" location="" tooltip="" display="2020 46th Euromicro Conference on Software Engineering and Advanced Applications (SEAA)"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4" display="Large Software Companies need to support the continuous and fast delivery of customer value in both the short and long term. However, this can be impeded if the evolution and maintenance of existing systems is hampered by what has been recently termed Technical Debt (TD). Specifically, Architectural TD has received increased attention in the last few years due to its significant impact on system success and, left unchecked, it can cause expensive repercussions. It is therefore important to understand the underlying factors of architectural TD. With this as background, there is a need for a descriptive model to illustrate and explain different architectural TD issues. The aim of this study is to synthesize and compile research efforts with the goal of creating new knowledge with a specific interest in the architectural TD field. The contribution of this paper is the presentation of a novel descriptive model, providing a comprehensive interpretation of the architectural TD phenomenon. This model categorizes the main characteristics of architectural TD and reveals their relations. The results show that, by using this model, different stakeholders could increase the system's success rate, and lower the rate of negative consequences, by raising awareness about architectural TD."/>
+    <hyperlink ref="F3" r:id="rId5" display="Journal of Systems and Software_x000a_"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="F4" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12" display="Context_x000a_A known problem in large software companies is to balance the prioritization of short-term with long-term feature delivery speed. Specifically, Architecture Technical Debt is regarded as sub-optimal architectural solutions taken to deliver fast that might hinder future feature development, which, in turn, would hinder agility._x000a_Objective_x000a_This paper aims at improving software management by shedding light on the current factors responsible for the accumulation of Architectural Technical Debt and to understand how it evolves over time._x000a_Method_x000a_We conducted an exploratory multiple-case embedded case study in 7 sites at 5 large companies. We evaluated the results with additional cross-company interviews and an in-depth, company-specific case study in which we initially evaluate factors and models._x000a_Results_x000a_We compiled a taxonomy of the factors and their influence in the accumulation of Architectural Technical Debt, and we provide two qualitative models of how the debt is accumulated and refactored over time in the studied companies. We also list a set of exploratory propositions on possible refactoring strategies that can be useful as insights for practitioners and as hypotheses for further research._x000a_Conclusion_x000a_Several factors cause constant and unavoidable accumulation of Architecture Technical Debt, which leads to development crises. Refactorings are often overlooked in prioritization and they are often triggered by development crises, in a reactive fashion. Some of the factors are manageable, while others are external to the companies. ATD needs to be made visible, in order to postpone the crises according to the strategic goals of the companies. There is a need for practices and automated tools to proactively manage ATD."/>
+    <hyperlink ref="F7" r:id="rId13" display="Information and Software Technology_x000a_"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="F8" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18" display="Architectural technical debt in software-intensive systems is a metaphor used to describe the “big” design decisions (e.g., choices regarding structure, frameworks, technologies, languages, etc.) that, while being suitable or even optimal when made, significantly hinder progress in the future. While other types of debt, such as code-level technical debt, can be readily detected by static analyzers, and often be refactored with minimal or only incremental efforts, architectural debt is hard to be identified, of wide-ranging remediation cost, daunting, and often avoided._x000a_In this study, we aim at developing a better understanding of how software development organizations conceptualize architectural debt, and how they deal with it. In order to do so, in this investigation we apply a mixed empirical method, constituted by a grounded theory study followed by focus groups. With the grounded theory method we construct a theory on architectural technical debt by eliciting qualitative data from software architects and senior technical staff from a wide range of heterogeneous software development organizations. We applied the focus group method to evaluate the emerging theory and refine it according to the new data collected._x000a_The result of the study, i.e., a theory emerging from the gathered data, constitutes an encompassing conceptual model of architectural technical debt, identifying and relating concepts such as its symptoms, causes, consequences, management strategies, and communication problems. From the conducted focus groups, we assessed that the theory adheres to the four evaluation criteria of classic grounded theory, i.e., the theory fits its underlying data, is able to work, has relevance, and is modifiable as new data appears._x000a_By grounding the findings in empirical evidence, the theory provides researchers and practitioners with novel knowledge on the crucial factors of architectural technical debt experienced in industrial contexts._x000a_"/>
+    <hyperlink ref="B12" r:id="rId19"/>
+    <hyperlink ref="D12" r:id="rId20" display="Context_x000a_Research and industry's attention has been focusing on developing systems that enable fast time to market in the short term, but would assure a sustainable delivery of business value and maintenance operations in the long run. A related phenomenon has been identified in Architectural Technical Debt: if the system architecture is sub-optimal for long-term business goals, it might need to be refactored. A key property of the system assuring long-term goals is its modularity, or else the degree to which components are decoupled: such property allows the product to be evolved without costly changes pervading the whole system. However, understanding the business benefits of refactoring to achieve modularity is not trivial, especially for large refactorings involving substantial architectural changes._x000a_Objective_x000a_The aim of this study was to develop a technique to identify Architectural Technical Debt in the form of a non-modularized component and to quantify the convenience of its repayment._x000a_Method_x000a_We have conducted a single, embedded case study in a large company, comparing a component before and after it was refactored to achieve modularity. We have developed a holistic framework for the semi-automated identification and estimation of Architectural Technical Debt in the form of non-modularized components. We then evaluate the technique reporting a comparative study of the difference in maintenance and development costs in two coexisting systems, one including the refactored component and one including the non-refactored one._x000a_Results_x000a_The main contributions are a measurement system for the identification of the Architectural Technical Debt according to the stakeholders’ goals, a mathematical relationship for calculating and quantifying its interest in terms of extra-effort spent in additional development and maintenance, and an overall decision framework to assess the benefit of refactoring. We also report context-specific results that show the estimated benefits of refactoring the specific case of Architectural Technical Debt._x000a_Conclusion_x000a_We found"/>
+    <hyperlink ref="F12" r:id="rId21" display="Information and Software Technology_x000a_"/>
+    <hyperlink ref="B13" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="D14" r:id="rId24" display="Technical debt (TD) has attracted an increasing interest from researchers and practitioners in the software engineering domain. Currently, most approaches to managing TD focus on dealing with TD at source code level, while few methods deal with TD at architecture level. If architectural technical debt (ATD) is not effectively managed in the architecting process, the knowledge about ATD is not made available to involved stakeholders and the impact of ATD is not considered during architecture decision-making. Thus, the system’s maintainability and evolvability can be intentionally or unintentionally compromised. As a result, architectures are costly to maintain and new features are difficult to introduce. To facilitate the management of ATD, it needs to be documented so that it becomes explicit to stakeholders. To this end, we propose a set of architecture viewpoints related to ATD (ATD viewpoints in short). Each viewpoint frames a number of concerns related to ATD. These ATD viewpoints together help to get a comprehensive understanding of ATD in a software system, thereby providing support for architecture decision-making. To evaluate the effectiveness of the ATD viewpoints in documenting ATD, we conducted a case study in a large telecommunications company. The results of this case study show that the documented ATD views can effectively facilitate the documentation of ATD. Specifically, the ATD viewpoints are relatively easy to understand, it takes an acceptable amount of effort to document ATD using the ATD viewpoints, and the documented ATD views are useful for stakeholders to understand the ATD in the software project."/>
+    <hyperlink ref="B15" r:id="rId25"/>
+    <hyperlink ref="B16" r:id="rId26"/>
+    <hyperlink ref="F16" r:id="rId27"/>
+    <hyperlink ref="B17" r:id="rId28"/>
+    <hyperlink ref="D17" r:id="rId29" display="Background:_x000a_Using a microservices architecture is a popular strategy for software organizations to deliver value to their customers fast and continuously. However, scientific knowledge on how to manage architectural debt in microservices is scarce._x000a_Objectives:_x000a_In the context of microservices applications, this paper aims to identify architectural technical debts (ATDs), their costs, and their most common solutions._x000a_Method:_x000a_We conducted an exploratory multiple case study by conducting 25 interviews with practitioners working with microservices in seven large companies._x000a_Results:_x000a_We found 16 ATD issues, their negative impact (interest), and common solutions to repay each debt together with the related costs (principal). Two examples of critical ATD issues found were the use of shared databases that, if not properly planned, leads to potential breaks on services every time the database schema changes and bad API designs, which leads to coupling among teams. We identified ATDs occurring in different domains and stages of development and created a map of the relationships among those debts._x000a_Conclusion:_x000a_The findings may guide organizations in developing microservices systems that better manage and avoid architectural debts"/>
+    <hyperlink ref="F17" r:id="rId30" display="Journal of Systems and Software_x000a_"/>
+    <hyperlink ref="B18" r:id="rId31"/>
+    <hyperlink ref="B19" r:id="rId32"/>
+    <hyperlink ref="F19" r:id="rId33"/>
+    <hyperlink ref="B20" r:id="rId34"/>
+    <hyperlink ref="F20" r:id="rId35"/>
+    <hyperlink ref="B21" r:id="rId36"/>
+    <hyperlink ref="F21" r:id="rId37"/>
+    <hyperlink ref="B22" r:id="rId38"/>
+    <hyperlink ref="B23" r:id="rId39"/>
+    <hyperlink ref="B24" r:id="rId40"/>
+    <hyperlink ref="B25" r:id="rId41"/>
+    <hyperlink ref="B26" r:id="rId42"/>
+    <hyperlink ref="F26" r:id="rId43"/>
+    <hyperlink ref="B27" r:id="rId44" display="https://www.researchgate.net/profile/Saulo-Toledo-2/publication/331904375_Architectural_Technical_Debt_in_Microservices_A_Case_Study_in_a_Large_Company/links/5d287d65458515c11c27cb5a/Architectural-Technical-Debt-in-Microservices-A-Case-Study-in-a-Large-Company.pdf"/>
+    <hyperlink ref="B28" r:id="rId45"/>
+    <hyperlink ref="F28" r:id="rId46"/>
+    <hyperlink ref="B29" r:id="rId47"/>
+    <hyperlink ref="B30" r:id="rId48"/>
+    <hyperlink ref="F30" r:id="rId49"/>
+    <hyperlink ref="B31" r:id="rId50"/>
+    <hyperlink ref="F31" r:id="rId51"/>
+    <hyperlink ref="B32" r:id="rId52"/>
+    <hyperlink ref="F32" r:id="rId53"/>
+    <hyperlink ref="B33" r:id="rId54"/>
+    <hyperlink ref="B34" r:id="rId55"/>
+    <hyperlink ref="D34" r:id="rId56" display="Architectural technical debt (ATD) may be incurred when making architecture decisions. In most cases, ATD is not effectively managed in the architecting process: It is not made explicit, and architecture decision making does not consider the ATD incurred by the different design options. This chapter proposes a conceptual model of ATD and an architectural technical debt management process applying this ATD conceptual model in order to facilitate decision making in a value-oriented perspective of architecting. We also demonstrate how ATD management can be employed in architectural synthesis and evaluation in a case study. The contribution of this work provides a controllable and predictable balance between the value and cost of architecture design in the long term."/>
+    <hyperlink ref="F34" r:id="rId57" display="Economics-Driven Software Architecture_x000a_"/>
+    <hyperlink ref="B35" r:id="rId58"/>
+    <hyperlink ref="F35" r:id="rId59"/>
+    <hyperlink ref="B36" r:id="rId60"/>
+    <hyperlink ref="F36" r:id="rId61"/>
+    <hyperlink ref="B37" r:id="rId62"/>
+    <hyperlink ref="F37" r:id="rId63"/>
+    <hyperlink ref="B38" r:id="rId64"/>
+    <hyperlink ref="B39" r:id="rId65"/>
+    <hyperlink ref="B40" r:id="rId66"/>
+    <hyperlink ref="B41" r:id="rId67"/>
+    <hyperlink ref="B42" r:id="rId68"/>
+    <hyperlink ref="F42" r:id="rId69"/>
+    <hyperlink ref="B43" r:id="rId70"/>
+    <hyperlink ref="B45" r:id="rId71"/>
+    <hyperlink ref="B46" r:id="rId72"/>
+    <hyperlink ref="F46" r:id="rId73"/>
+    <hyperlink ref="B47" r:id="rId74"/>
+    <hyperlink ref="B48" r:id="rId75"/>
+    <hyperlink ref="F48" r:id="rId76"/>
+    <hyperlink ref="B49" r:id="rId77"/>
+    <hyperlink ref="B50" r:id="rId78"/>
+    <hyperlink ref="B51" r:id="rId79"/>
+    <hyperlink ref="B52" r:id="rId80"/>
+    <hyperlink ref="F52" r:id="rId81"/>
+    <hyperlink ref="B53" r:id="rId82"/>
+    <hyperlink ref="B54" r:id="rId83"/>
+    <hyperlink ref="F54" r:id="rId84"/>
+    <hyperlink ref="B55" r:id="rId85"/>
+    <hyperlink ref="B56" r:id="rId86"/>
+    <hyperlink ref="B57" r:id="rId87"/>
+    <hyperlink ref="B58" r:id="rId88"/>
+    <hyperlink ref="B59" r:id="rId89"/>
+    <hyperlink ref="F59" r:id="rId90"/>
+    <hyperlink ref="B60" r:id="rId91"/>
+    <hyperlink ref="D60" r:id="rId92" display="Context:_x000a_During software development, some architectural design decisions incur technical debt, either deliberately or inadvertently. These have serious impact on the quality of a software system, and can cost significant time and effort to be changed. While current research efforts have explored general concepts of architectural design decisions and technical debt separately, debt-incurring architectural design decisions have not been specifically explored in practice._x000a_Objective:_x000a_In this case study, we explore debt-incurring architectural design decisions (DADDs) in practice. Specifically, we explore the main types of DADDs, why and how they are incurred in a software system, and how practitioners deal with these types of design decisions._x000a_Method:_x000a_We performed interviews and a focus group with practitioners working in embedded and enterprise software companies, discussing their concrete experience with such architectural design decisions._x000a_Results:_x000a_We provide the following contributions: 1) A categorization for the types of DADDs, which extend a current ontology on architectural design decisions. 2) A process on how deliberate DADDs are made in practice. 3) A conceptual model which shows the relationships between the causes and triggers of inadvertent DADDs. 4) The main factors that influence the way of dealing with DADDs._x000a_Conclusion:_x000a_The results can support the development of new approaches and tools for Architecture Technical Debt management from the perspective of Design Decisions. Moreover, they support future research to capture architecture knowledge related to DADDs._x000a_"/>
+    <hyperlink ref="F60" r:id="rId93" display="Journal of Information and Software Technology_x000a_"/>
+    <hyperlink ref="B61" r:id="rId94"/>
+    <hyperlink ref="F61" r:id="rId95"/>
+    <hyperlink ref="F62" r:id="rId96"/>
+    <hyperlink ref="B63" r:id="rId97"/>
+    <hyperlink ref="F63" r:id="rId98"/>
+    <hyperlink ref="B64" r:id="rId99"/>
+    <hyperlink ref="F64" r:id="rId100"/>
+    <hyperlink ref="B65" r:id="rId101"/>
+    <hyperlink ref="B66" r:id="rId102"/>
+    <hyperlink ref="F66" r:id="rId103"/>
+    <hyperlink ref="B67" r:id="rId104"/>
+    <hyperlink ref="B68" r:id="rId105"/>
+    <hyperlink ref="B69" r:id="rId106"/>
+    <hyperlink ref="F69" r:id="rId107"/>
+    <hyperlink ref="B70" r:id="rId108"/>
+    <hyperlink ref="F70" r:id="rId109"/>
+    <hyperlink ref="B71" r:id="rId110"/>
+    <hyperlink ref="F71" r:id="rId111"/>
+    <hyperlink ref="B72" r:id="rId112"/>
+    <hyperlink ref="F72" r:id="rId113"/>
+    <hyperlink ref="B73" r:id="rId114"/>
+    <hyperlink ref="F73" r:id="rId115"/>
+    <hyperlink ref="B74" r:id="rId116"/>
+    <hyperlink ref="F74" r:id="rId117" display="Information and Software Technology_x000a_"/>
+    <hyperlink ref="B75" r:id="rId118"/>
+    <hyperlink ref="F75" r:id="rId119"/>
+    <hyperlink ref="B76" r:id="rId120"/>
+    <hyperlink ref="B77" r:id="rId121"/>
+    <hyperlink ref="B78" r:id="rId122"/>
+    <hyperlink ref="F78" r:id="rId123"/>
+    <hyperlink ref="B79" r:id="rId124"/>
+    <hyperlink ref="F79" r:id="rId125"/>
+    <hyperlink ref="B80" r:id="rId126" display="https://www.researchgate.net/profile/Llahm-Omar-Ben-Dalla-2/publication/344892539_Systematic_Mapping_on_a_metaphorical_issue_of_Technical_Debt_framework/links/5f9754f892851c14bceaae4d/Systematic-Mapping-on-a-metaphorical-issue-of-Technical-Debt-framework.pdf"/>
+    <hyperlink ref="B81" r:id="rId127"/>
+    <hyperlink ref="F81" r:id="rId128"/>
+    <hyperlink ref="B82" r:id="rId129"/>
+    <hyperlink ref="F82" r:id="rId130"/>
+    <hyperlink ref="B83" r:id="rId131"/>
+    <hyperlink ref="F83" r:id="rId132"/>
+    <hyperlink ref="B84" r:id="rId133"/>
+    <hyperlink ref="F84" r:id="rId134"/>
+    <hyperlink ref="B85" r:id="rId135"/>
+    <hyperlink ref="B86" r:id="rId136"/>
+    <hyperlink ref="B87" r:id="rId137"/>
+    <hyperlink ref="F87" r:id="rId138" display="Journal of Systems and Software_x000a_"/>
+    <hyperlink ref="B88" r:id="rId139"/>
+    <hyperlink ref="B89" r:id="rId140"/>
+    <hyperlink ref="B90" r:id="rId141"/>
+    <hyperlink ref="B91" r:id="rId142"/>
+    <hyperlink ref="B92" r:id="rId143"/>
+    <hyperlink ref="B93" r:id="rId144"/>
+    <hyperlink ref="F93" r:id="rId145" display="Science of Computer Programming_x000a_"/>
+    <hyperlink ref="B94" r:id="rId146"/>
+    <hyperlink ref="B95" r:id="rId147"/>
+    <hyperlink ref="B96" r:id="rId148"/>
+    <hyperlink ref="F96" r:id="rId149"/>
+    <hyperlink ref="B97" r:id="rId150"/>
+    <hyperlink ref="B98" r:id="rId151"/>
+    <hyperlink ref="B99" r:id="rId152"/>
+    <hyperlink ref="F99" r:id="rId153" display="Information and Software Technology_x000a_"/>
+    <hyperlink ref="B100" r:id="rId154"/>
+    <hyperlink ref="B101" r:id="rId155"/>
+    <hyperlink ref="B102" r:id="rId156"/>
+    <hyperlink ref="F102" r:id="rId157" display="Journal of Systems and Software_x000a_"/>
+    <hyperlink ref="B103" r:id="rId158"/>
+    <hyperlink ref="B104" r:id="rId159"/>
+    <hyperlink ref="F104" r:id="rId160"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>